--- a/Kode/Server2/Logs/lora_node3/2020-05-22.xlsx
+++ b/Kode/Server2/Logs/lora_node3/2020-05-22.xlsx
@@ -4183,7 +4183,7 @@
         <v>0.015</v>
       </c>
       <c r="F191" t="n">
-        <v>5.58e-06</v>
+        <v>0.00558</v>
       </c>
     </row>
     <row r="192">
@@ -4203,7 +4203,7 @@
         <v>0.015</v>
       </c>
       <c r="F192" t="n">
-        <v>5.7e-06</v>
+        <v>0.005699999999999999</v>
       </c>
     </row>
     <row r="193">
@@ -4223,7 +4223,7 @@
         <v>0.015</v>
       </c>
       <c r="F193" t="n">
-        <v>5.88e-06</v>
+        <v>0.00588</v>
       </c>
     </row>
     <row r="194">
@@ -4243,7 +4243,7 @@
         <v>0.015</v>
       </c>
       <c r="F194" t="n">
-        <v>6.06e-06</v>
+        <v>0.006059999999999999</v>
       </c>
     </row>
     <row r="195">
@@ -4263,7 +4263,7 @@
         <v>0.03</v>
       </c>
       <c r="F195" t="n">
-        <v>1.248e-05</v>
+        <v>0.01248</v>
       </c>
     </row>
     <row r="196">
@@ -4283,7 +4283,7 @@
         <v>0.045</v>
       </c>
       <c r="F196" t="n">
-        <v>1.926e-05</v>
+        <v>0.01926</v>
       </c>
     </row>
     <row r="197">
@@ -4303,7 +4303,7 @@
         <v>0.045</v>
       </c>
       <c r="F197" t="n">
-        <v>1.98e-05</v>
+        <v>0.0198</v>
       </c>
     </row>
     <row r="198">
@@ -4323,7 +4323,7 @@
         <v>0.06</v>
       </c>
       <c r="F198" t="n">
-        <v>2.736e-05</v>
+        <v>0.02736</v>
       </c>
     </row>
     <row r="199">
@@ -4343,7 +4343,7 @@
         <v>0.075</v>
       </c>
       <c r="F199" t="n">
-        <v>3.51e-05</v>
+        <v>0.0351</v>
       </c>
     </row>
     <row r="200">
@@ -4363,7 +4363,7 @@
         <v>0.075</v>
       </c>
       <c r="F200" t="n">
-        <v>3.69e-05</v>
+        <v>0.0369</v>
       </c>
     </row>
     <row r="201">
@@ -4383,7 +4383,7 @@
         <v>0.075</v>
       </c>
       <c r="F201" t="n">
-        <v>3.75e-05</v>
+        <v>0.0375</v>
       </c>
     </row>
     <row r="202">
@@ -4403,7 +4403,7 @@
         <v>0.105</v>
       </c>
       <c r="F202" t="n">
-        <v>5.376e-05</v>
+        <v>0.05376</v>
       </c>
     </row>
     <row r="203">
@@ -4423,7 +4423,7 @@
         <v>0.09</v>
       </c>
       <c r="F203" t="n">
-        <v>4.788e-05</v>
+        <v>0.04788</v>
       </c>
     </row>
     <row r="204">
@@ -4443,7 +4443,7 @@
         <v>0.09</v>
       </c>
       <c r="F204" t="n">
-        <v>4.932e-05</v>
+        <v>0.04932</v>
       </c>
     </row>
     <row r="205">
@@ -4463,7 +4463,7 @@
         <v>0.105</v>
       </c>
       <c r="F205" t="n">
-        <v>5.922e-05</v>
+        <v>0.05922</v>
       </c>
     </row>
     <row r="206">
@@ -4483,7 +4483,7 @@
         <v>0.105</v>
       </c>
       <c r="F206" t="n">
-        <v>6.131999999999999e-05</v>
+        <v>0.06131999999999999</v>
       </c>
     </row>
     <row r="207">
@@ -4503,7 +4503,7 @@
         <v>0.105</v>
       </c>
       <c r="F207" t="n">
-        <v>6.3e-05</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="208">
@@ -4523,7 +4523,7 @@
         <v>0.135</v>
       </c>
       <c r="F208" t="n">
-        <v>8.370000000000002e-05</v>
+        <v>0.08370000000000001</v>
       </c>
     </row>
     <row r="209">
@@ -4543,7 +4543,7 @@
         <v>0.12</v>
       </c>
       <c r="F209" t="n">
-        <v>7.68e-05</v>
+        <v>0.07679999999999999</v>
       </c>
     </row>
     <row r="210">
@@ -4563,7 +4563,7 @@
         <v>0.135</v>
       </c>
       <c r="F210" t="n">
-        <v>8.910000000000001e-05</v>
+        <v>0.08910000000000001</v>
       </c>
     </row>
     <row r="211">
@@ -4583,7 +4583,7 @@
         <v>0.12</v>
       </c>
       <c r="F211" t="n">
-        <v>8.16e-05</v>
+        <v>0.08160000000000001</v>
       </c>
     </row>
     <row r="212">
@@ -4603,7 +4603,7 @@
         <v>0.135</v>
       </c>
       <c r="F212" t="n">
-        <v>9.504e-05</v>
+        <v>0.09504</v>
       </c>
     </row>
     <row r="213">
@@ -4623,7 +4623,7 @@
         <v>0.135</v>
       </c>
       <c r="F213" t="n">
-        <v>9.774000000000001e-05</v>
+        <v>0.09774000000000001</v>
       </c>
     </row>
     <row r="214">
@@ -4643,7 +4643,7 @@
         <v>0.15</v>
       </c>
       <c r="F214" t="n">
-        <v>0.0001122</v>
+        <v>0.1122</v>
       </c>
     </row>
     <row r="215">
@@ -4663,7 +4663,7 @@
         <v>0.165</v>
       </c>
       <c r="F215" t="n">
-        <v>0.00012738</v>
+        <v>0.12738</v>
       </c>
     </row>
     <row r="216">
@@ -4683,7 +4683,7 @@
         <v>0.165</v>
       </c>
       <c r="F216" t="n">
-        <v>0.00013134</v>
+        <v>0.13134</v>
       </c>
     </row>
     <row r="217">
@@ -4703,7 +4703,7 @@
         <v>0.18</v>
       </c>
       <c r="F217" t="n">
-        <v>0.0001476</v>
+        <v>0.1476</v>
       </c>
     </row>
     <row r="218">
@@ -4723,7 +4723,7 @@
         <v>0.21</v>
       </c>
       <c r="F218" t="n">
-        <v>0.00017808</v>
+        <v>0.17808</v>
       </c>
     </row>
     <row r="219">
@@ -4743,7 +4743,7 @@
         <v>0.24</v>
       </c>
       <c r="F219" t="n">
-        <v>0.00020928</v>
+        <v>0.20928</v>
       </c>
     </row>
     <row r="220">
@@ -4763,7 +4763,7 @@
         <v>0.255</v>
       </c>
       <c r="F220" t="n">
-        <v>0.0002295</v>
+        <v>0.2295</v>
       </c>
     </row>
     <row r="221">
@@ -4783,7 +4783,7 @@
         <v>0.285</v>
       </c>
       <c r="F221" t="n">
-        <v>0.00026448</v>
+        <v>0.26448</v>
       </c>
     </row>
     <row r="222">
@@ -4803,7 +4803,7 @@
         <v>0.285</v>
       </c>
       <c r="F222" t="n">
-        <v>0.0002735999999999999</v>
+        <v>0.2735999999999999</v>
       </c>
     </row>
     <row r="223">
@@ -4823,7 +4823,7 @@
         <v>0.315</v>
       </c>
       <c r="F223" t="n">
-        <v>0.00031122</v>
+        <v>0.31122</v>
       </c>
     </row>
     <row r="224">
@@ -4843,7 +4843,7 @@
         <v>0.36</v>
       </c>
       <c r="F224" t="n">
-        <v>0.0003672</v>
+        <v>0.3672</v>
       </c>
     </row>
     <row r="225">
@@ -4863,7 +4863,7 @@
         <v>0.36</v>
       </c>
       <c r="F225" t="n">
-        <v>0.00038016</v>
+        <v>0.38016</v>
       </c>
     </row>
     <row r="226">
@@ -4883,7 +4883,7 @@
         <v>0.39</v>
       </c>
       <c r="F226" t="n">
-        <v>0.0004243200000000001</v>
+        <v>0.4243200000000001</v>
       </c>
     </row>
     <row r="227">
@@ -4903,7 +4903,7 @@
         <v>0.405</v>
       </c>
       <c r="F227" t="n">
-        <v>0.00045522</v>
+        <v>0.45522</v>
       </c>
     </row>
     <row r="228">
@@ -4923,7 +4923,7 @@
         <v>0.42</v>
       </c>
       <c r="F228" t="n">
-        <v>0.0004872</v>
+        <v>0.4872</v>
       </c>
     </row>
     <row r="229">
@@ -4943,7 +4943,7 @@
         <v>0.435</v>
       </c>
       <c r="F229" t="n">
-        <v>0.000522</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="230">
@@ -4963,7 +4963,7 @@
         <v>0.45</v>
       </c>
       <c r="F230" t="n">
-        <v>0.0005579999999999999</v>
+        <v>0.5579999999999999</v>
       </c>
     </row>
     <row r="231">
@@ -4983,7 +4983,7 @@
         <v>0.465</v>
       </c>
       <c r="F231" t="n">
-        <v>0.00059706</v>
+        <v>0.5970599999999999</v>
       </c>
     </row>
     <row r="232">
@@ -5003,7 +5003,7 @@
         <v>0.48</v>
       </c>
       <c r="F232" t="n">
-        <v>0.0006393600000000001</v>
+        <v>0.63936</v>
       </c>
     </row>
     <row r="233">
@@ -5023,7 +5023,7 @@
         <v>0.495</v>
       </c>
       <c r="F233" t="n">
-        <v>0.00068508</v>
+        <v>0.68508</v>
       </c>
     </row>
     <row r="234">
@@ -5043,7 +5043,7 @@
         <v>0.525</v>
       </c>
       <c r="F234" t="n">
-        <v>0.0007560000000000001</v>
+        <v>0.756</v>
       </c>
     </row>
     <row r="235">
@@ -5063,7 +5063,7 @@
         <v>0.57</v>
       </c>
       <c r="F235" t="n">
-        <v>0.00085728</v>
+        <v>0.8572799999999999</v>
       </c>
     </row>
     <row r="236">
@@ -5083,7 +5083,7 @@
         <v>0.585</v>
       </c>
       <c r="F236" t="n">
-        <v>0.00091962</v>
+        <v>0.91962</v>
       </c>
     </row>
     <row r="237">
@@ -5103,7 +5103,7 @@
         <v>0.6</v>
       </c>
       <c r="F237" t="n">
-        <v>0.0009792000000000002</v>
+        <v>0.9792000000000002</v>
       </c>
     </row>
     <row r="238">
@@ -5123,7 +5123,7 @@
         <v>0.645</v>
       </c>
       <c r="F238" t="n">
-        <v>0.00109908</v>
+        <v>1.09908</v>
       </c>
     </row>
     <row r="239">
@@ -5143,7 +5143,7 @@
         <v>0.6749999999999999</v>
       </c>
       <c r="F239" t="n">
-        <v>0.0012312</v>
+        <v>1.2312</v>
       </c>
     </row>
     <row r="240">
@@ -5163,7 +5163,7 @@
         <v>0.6749999999999999</v>
       </c>
       <c r="F240" t="n">
-        <v>0.0013635</v>
+        <v>1.3635</v>
       </c>
     </row>
     <row r="241">
@@ -5183,7 +5183,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="F241" t="n">
-        <v>0.00155388</v>
+        <v>1.55388</v>
       </c>
     </row>
     <row r="242">
@@ -5203,7 +5203,7 @@
         <v>0.705</v>
       </c>
       <c r="F242" t="n">
-        <v>0.00171456</v>
+        <v>1.71456</v>
       </c>
     </row>
     <row r="243">
@@ -5223,7 +5223,7 @@
         <v>0.735</v>
       </c>
       <c r="F243" t="n">
-        <v>0.00187572</v>
+        <v>1.87572</v>
       </c>
     </row>
     <row r="244">
@@ -5243,7 +5243,7 @@
         <v>0.765</v>
       </c>
       <c r="F244" t="n">
-        <v>0.00182682</v>
+        <v>1.82682</v>
       </c>
     </row>
     <row r="245">
@@ -5263,7 +5263,7 @@
         <v>0.78</v>
       </c>
       <c r="F245" t="n">
-        <v>0.00179088</v>
+        <v>1.79088</v>
       </c>
     </row>
     <row r="246">
@@ -5283,7 +5283,7 @@
         <v>0.8099999999999999</v>
       </c>
       <c r="F246" t="n">
-        <v>0.00180792</v>
+        <v>1.80792</v>
       </c>
     </row>
     <row r="247">
@@ -5303,7 +5303,7 @@
         <v>0.855</v>
       </c>
       <c r="F247" t="n">
-        <v>0.00197334</v>
+        <v>1.97334</v>
       </c>
     </row>
     <row r="248">
@@ -5323,7 +5323,7 @@
         <v>0.87</v>
       </c>
       <c r="F248" t="n">
-        <v>0.0019662</v>
+        <v>1.9662</v>
       </c>
     </row>
     <row r="249">
@@ -5343,7 +5343,7 @@
         <v>0.885</v>
       </c>
       <c r="F249" t="n">
-        <v>0.002024880000000001</v>
+        <v>2.024880000000001</v>
       </c>
     </row>
     <row r="250">
@@ -5363,7 +5363,7 @@
         <v>0.945</v>
       </c>
       <c r="F250" t="n">
-        <v>0.0021168</v>
+        <v>2.1168</v>
       </c>
     </row>
     <row r="251">
@@ -5383,7 +5383,7 @@
         <v>0.96</v>
       </c>
       <c r="F251" t="n">
-        <v>0.00211584</v>
+        <v>2.11584</v>
       </c>
     </row>
     <row r="252">
@@ -5403,7 +5403,7 @@
         <v>0.975</v>
       </c>
       <c r="F252" t="n">
-        <v>0.0022191</v>
+        <v>2.2191</v>
       </c>
     </row>
     <row r="253">
@@ -5423,7 +5423,7 @@
         <v>1.005</v>
       </c>
       <c r="F253" t="n">
-        <v>0.00225924</v>
+        <v>2.25924</v>
       </c>
     </row>
     <row r="254">
@@ -5443,7 +5443,7 @@
         <v>1.02</v>
       </c>
       <c r="F254" t="n">
-        <v>0.00227664</v>
+        <v>2.27664</v>
       </c>
     </row>
     <row r="255">
@@ -5463,7 +5463,7 @@
         <v>1.05</v>
       </c>
       <c r="F255" t="n">
-        <v>0.0023184</v>
+        <v>2.3184</v>
       </c>
     </row>
     <row r="256">
@@ -5483,7 +5483,7 @@
         <v>1.065</v>
       </c>
       <c r="F256" t="n">
-        <v>0.00235578</v>
+        <v>2.35578</v>
       </c>
     </row>
     <row r="257">
@@ -5503,7 +5503,7 @@
         <v>1.095</v>
       </c>
       <c r="F257" t="n">
-        <v>0.00246594</v>
+        <v>2.46594</v>
       </c>
     </row>
     <row r="258">
@@ -5523,7 +5523,7 @@
         <v>1.14</v>
       </c>
       <c r="F258" t="n">
-        <v>0.00256728</v>
+        <v>2.56728</v>
       </c>
     </row>
     <row r="259">
@@ -5543,7 +5543,7 @@
         <v>1.155</v>
       </c>
       <c r="F259" t="n">
-        <v>0.00259644</v>
+        <v>2.59644</v>
       </c>
     </row>
     <row r="260">
@@ -5563,7 +5563,7 @@
         <v>1.215</v>
       </c>
       <c r="F260" t="n">
-        <v>0.00262926</v>
+        <v>2.62926</v>
       </c>
     </row>
     <row r="261">
@@ -5583,7 +5583,7 @@
         <v>1.245</v>
       </c>
       <c r="F261" t="n">
-        <v>0.00274896</v>
+        <v>2.74896</v>
       </c>
     </row>
     <row r="262">
@@ -5603,7 +5603,7 @@
         <v>1.26</v>
       </c>
       <c r="F262" t="n">
-        <v>0.00273168</v>
+        <v>2.73168</v>
       </c>
     </row>
     <row r="263">
@@ -5623,7 +5623,7 @@
         <v>1.305</v>
       </c>
       <c r="F263" t="n">
-        <v>0.00283446</v>
+        <v>2.83446</v>
       </c>
     </row>
     <row r="264">
@@ -5643,7 +5643,7 @@
         <v>1.32</v>
       </c>
       <c r="F264" t="n">
-        <v>0.00287232</v>
+        <v>2.87232</v>
       </c>
     </row>
     <row r="265">
@@ -5663,7 +5663,7 @@
         <v>1.38</v>
       </c>
       <c r="F265" t="n">
-        <v>0.0030636</v>
+        <v>3.0636</v>
       </c>
     </row>
     <row r="266">
@@ -5683,7 +5683,7 @@
         <v>1.395</v>
       </c>
       <c r="F266" t="n">
-        <v>0.00302994</v>
+        <v>3.02994</v>
       </c>
     </row>
     <row r="267">
@@ -5703,7 +5703,7 @@
         <v>1.425</v>
       </c>
       <c r="F267" t="n">
-        <v>0.003163500000000001</v>
+        <v>3.163500000000001</v>
       </c>
     </row>
     <row r="268">
@@ -5723,7 +5723,7 @@
         <v>1.455</v>
       </c>
       <c r="F268" t="n">
-        <v>0.00318354</v>
+        <v>3.18354</v>
       </c>
     </row>
     <row r="269">
@@ -5743,7 +5743,7 @@
         <v>1.485</v>
       </c>
       <c r="F269" t="n">
-        <v>0.00327888</v>
+        <v>3.27888</v>
       </c>
     </row>
     <row r="270">
@@ -5763,7 +5763,7 @@
         <v>1.545</v>
       </c>
       <c r="F270" t="n">
-        <v>0.00345462</v>
+        <v>3.45462</v>
       </c>
     </row>
     <row r="271">
@@ -5783,7 +5783,7 @@
         <v>1.56</v>
       </c>
       <c r="F271" t="n">
-        <v>0.00338832</v>
+        <v>3.38832</v>
       </c>
     </row>
     <row r="272">
@@ -5803,7 +5803,7 @@
         <v>1.59</v>
       </c>
       <c r="F272" t="n">
-        <v>0.0035616</v>
+        <v>3.5616</v>
       </c>
     </row>
     <row r="273">
@@ -5823,7 +5823,7 @@
         <v>1.62</v>
       </c>
       <c r="F273" t="n">
-        <v>0.00358344</v>
+        <v>3.58344</v>
       </c>
     </row>
     <row r="274">
@@ -5843,7 +5843,7 @@
         <v>1.65</v>
       </c>
       <c r="F274" t="n">
-        <v>0.003564</v>
+        <v>3.564</v>
       </c>
     </row>
     <row r="275">
@@ -5863,7 +5863,7 @@
         <v>1.68</v>
       </c>
       <c r="F275" t="n">
-        <v>0.00372288</v>
+        <v>3.72288</v>
       </c>
     </row>
     <row r="276">
@@ -5883,7 +5883,7 @@
         <v>1.725</v>
       </c>
       <c r="F276" t="n">
-        <v>0.0037674</v>
+        <v>3.7674</v>
       </c>
     </row>
     <row r="277">
@@ -5903,7 +5903,7 @@
         <v>1.74</v>
       </c>
       <c r="F277" t="n">
-        <v>0.00369576</v>
+        <v>3.69576</v>
       </c>
     </row>
     <row r="278">
@@ -5923,7 +5923,7 @@
         <v>1.785</v>
       </c>
       <c r="F278" t="n">
-        <v>0.00381276</v>
+        <v>3.81276</v>
       </c>
     </row>
     <row r="279">
@@ -5943,7 +5943,7 @@
         <v>1.8</v>
       </c>
       <c r="F279" t="n">
-        <v>0.0039024</v>
+        <v>3.9024</v>
       </c>
     </row>
     <row r="280">
@@ -5963,7 +5963,7 @@
         <v>1.83</v>
       </c>
       <c r="F280" t="n">
-        <v>0.004077239999999999</v>
+        <v>4.07724</v>
       </c>
     </row>
     <row r="281">
@@ -5983,7 +5983,7 @@
         <v>1.86</v>
       </c>
       <c r="F281" t="n">
-        <v>0.00401016</v>
+        <v>4.01016</v>
       </c>
     </row>
     <row r="282">
@@ -6003,7 +6003,7 @@
         <v>1.905</v>
       </c>
       <c r="F282" t="n">
-        <v>0.004030980000000001</v>
+        <v>4.03098</v>
       </c>
     </row>
     <row r="283">
@@ -6023,7 +6023,7 @@
         <v>1.92</v>
       </c>
       <c r="F283" t="n">
-        <v>0.00413952</v>
+        <v>4.13952</v>
       </c>
     </row>
     <row r="284">
@@ -6043,7 +6043,7 @@
         <v>1.965</v>
       </c>
       <c r="F284" t="n">
-        <v>0.00427584</v>
+        <v>4.275840000000001</v>
       </c>
     </row>
     <row r="285">
@@ -6063,7 +6063,7 @@
         <v>1.995</v>
       </c>
       <c r="F285" t="n">
-        <v>0.00419748</v>
+        <v>4.19748</v>
       </c>
     </row>
     <row r="286">
@@ -6083,7 +6083,7 @@
         <v>2.025</v>
       </c>
       <c r="F286" t="n">
-        <v>0.0042363</v>
+        <v>4.2363</v>
       </c>
     </row>
     <row r="287">
@@ -6103,7 +6103,7 @@
         <v>2.055</v>
       </c>
       <c r="F287" t="n">
-        <v>0.004183979999999999</v>
+        <v>4.183979999999998</v>
       </c>
     </row>
     <row r="288">
@@ -6123,7 +6123,7 @@
         <v>2.1</v>
       </c>
       <c r="F288" t="n">
-        <v>0.0042504</v>
+        <v>4.2504</v>
       </c>
     </row>
     <row r="289">
@@ -6143,7 +6143,7 @@
         <v>2.1</v>
       </c>
       <c r="F289" t="n">
-        <v>0.0042672</v>
+        <v>4.2672</v>
       </c>
     </row>
     <row r="290">
@@ -6163,7 +6163,7 @@
         <v>2.16</v>
       </c>
       <c r="F290" t="n">
-        <v>0.00408672</v>
+        <v>4.086720000000001</v>
       </c>
     </row>
     <row r="291">
@@ -6183,7 +6183,7 @@
         <v>2.19</v>
       </c>
       <c r="F291" t="n">
-        <v>0.00396828</v>
+        <v>3.96828</v>
       </c>
     </row>
     <row r="292">
@@ -6203,7 +6203,7 @@
         <v>2.22</v>
       </c>
       <c r="F292" t="n">
-        <v>0.0040404</v>
+        <v>4.0404</v>
       </c>
     </row>
     <row r="293">
@@ -6223,7 +6223,7 @@
         <v>2.235</v>
       </c>
       <c r="F293" t="n">
-        <v>0.00409452</v>
+        <v>4.09452</v>
       </c>
     </row>
     <row r="294">
@@ -6243,7 +6243,7 @@
         <v>2.28</v>
       </c>
       <c r="F294" t="n">
-        <v>0.0041952</v>
+        <v>4.1952</v>
       </c>
     </row>
     <row r="295">
@@ -6263,7 +6263,7 @@
         <v>2.295</v>
       </c>
       <c r="F295" t="n">
-        <v>0.00424116</v>
+        <v>4.24116</v>
       </c>
     </row>
     <row r="296">
@@ -6283,7 +6283,7 @@
         <v>2.325</v>
       </c>
       <c r="F296" t="n">
-        <v>0.004324499999999999</v>
+        <v>4.3245</v>
       </c>
     </row>
     <row r="297">
@@ -6303,7 +6303,7 @@
         <v>2.37</v>
       </c>
       <c r="F297" t="n">
-        <v>0.00442716</v>
+        <v>4.427160000000001</v>
       </c>
     </row>
     <row r="298">
@@ -6323,7 +6323,7 @@
         <v>2.385</v>
       </c>
       <c r="F298" t="n">
-        <v>0.0044838</v>
+        <v>4.4838</v>
       </c>
     </row>
     <row r="299">
@@ -6343,7 +6343,7 @@
         <v>2.415</v>
       </c>
       <c r="F299" t="n">
-        <v>0.00455952</v>
+        <v>4.55952</v>
       </c>
     </row>
     <row r="300">
@@ -6363,7 +6363,7 @@
         <v>2.445</v>
       </c>
       <c r="F300" t="n">
-        <v>0.0046455</v>
+        <v>4.6455</v>
       </c>
     </row>
     <row r="301">
@@ -6383,7 +6383,7 @@
         <v>2.475</v>
       </c>
       <c r="F301" t="n">
-        <v>0.0047223</v>
+        <v>4.7223</v>
       </c>
     </row>
     <row r="302">
@@ -6403,7 +6403,7 @@
         <v>2.505</v>
       </c>
       <c r="F302" t="n">
-        <v>0.0048096</v>
+        <v>4.8096</v>
       </c>
     </row>
     <row r="303">
@@ -6423,7 +6423,7 @@
         <v>2.535</v>
       </c>
       <c r="F303" t="n">
-        <v>0.004897619999999999</v>
+        <v>4.897619999999999</v>
       </c>
     </row>
     <row r="304">
@@ -6443,7 +6443,7 @@
         <v>2.58</v>
       </c>
       <c r="F304" t="n">
-        <v>0.0050052</v>
+        <v>5.005199999999999</v>
       </c>
     </row>
     <row r="305">
@@ -6463,7 +6463,7 @@
         <v>2.61</v>
       </c>
       <c r="F305" t="n">
-        <v>0.00509472</v>
+        <v>5.09472</v>
       </c>
     </row>
     <row r="306">
@@ -6483,7 +6483,7 @@
         <v>2.61</v>
       </c>
       <c r="F306" t="n">
-        <v>0.0051156</v>
+        <v>5.1156</v>
       </c>
     </row>
     <row r="307">
@@ -6503,7 +6503,7 @@
         <v>2.655</v>
       </c>
       <c r="F307" t="n">
-        <v>0.00523566</v>
+        <v>5.235659999999999</v>
       </c>
     </row>
     <row r="308">
@@ -6523,7 +6523,7 @@
         <v>2.685</v>
       </c>
       <c r="F308" t="n">
-        <v>0.0053163</v>
+        <v>5.3163</v>
       </c>
     </row>
     <row r="309">
@@ -6543,7 +6543,7 @@
         <v>2.715</v>
       </c>
       <c r="F309" t="n">
-        <v>0.00540828</v>
+        <v>5.40828</v>
       </c>
     </row>
     <row r="310">
@@ -6563,7 +6563,7 @@
         <v>2.745</v>
       </c>
       <c r="F310" t="n">
-        <v>0.00549</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="311">
@@ -6583,7 +6583,7 @@
         <v>2.775</v>
       </c>
       <c r="F311" t="n">
-        <v>0.005583299999999999</v>
+        <v>5.583299999999999</v>
       </c>
     </row>
     <row r="312">
@@ -6603,7 +6603,7 @@
         <v>2.805</v>
       </c>
       <c r="F312" t="n">
-        <v>0.00567732</v>
+        <v>5.67732</v>
       </c>
     </row>
     <row r="313">
@@ -6623,7 +6623,7 @@
         <v>2.835</v>
       </c>
       <c r="F313" t="n">
-        <v>0.00574938</v>
+        <v>5.74938</v>
       </c>
     </row>
     <row r="314">
@@ -6643,7 +6643,7 @@
         <v>2.865</v>
       </c>
       <c r="F314" t="n">
-        <v>0.00582168</v>
+        <v>5.82168</v>
       </c>
     </row>
     <row r="315">
@@ -6663,7 +6663,7 @@
         <v>2.895</v>
       </c>
       <c r="F315" t="n">
-        <v>0.005894219999999999</v>
+        <v>5.894219999999999</v>
       </c>
     </row>
     <row r="316">
@@ -6683,7 +6683,7 @@
         <v>2.91</v>
       </c>
       <c r="F316" t="n">
-        <v>0.0059364</v>
+        <v>5.9364</v>
       </c>
     </row>
     <row r="317">
@@ -6703,7 +6703,7 @@
         <v>2.955</v>
       </c>
       <c r="F317" t="n">
-        <v>0.00604002</v>
+        <v>6.04002</v>
       </c>
     </row>
     <row r="318">
@@ -6723,7 +6723,7 @@
         <v>2.97</v>
       </c>
       <c r="F318" t="n">
-        <v>0.006070679999999999</v>
+        <v>6.070679999999999</v>
       </c>
     </row>
     <row r="319">
@@ -6743,7 +6743,7 @@
         <v>2.985</v>
       </c>
       <c r="F319" t="n">
-        <v>0.006101339999999999</v>
+        <v>6.10134</v>
       </c>
     </row>
     <row r="320">
@@ -6763,7 +6763,7 @@
         <v>3.03</v>
       </c>
       <c r="F320" t="n">
-        <v>0.00621756</v>
+        <v>6.21756</v>
       </c>
     </row>
     <row r="321">
@@ -6783,7 +6783,7 @@
         <v>3.045</v>
       </c>
       <c r="F321" t="n">
-        <v>0.006260519999999999</v>
+        <v>6.260519999999999</v>
       </c>
     </row>
     <row r="322">
@@ -6803,7 +6803,7 @@
         <v>3.075</v>
       </c>
       <c r="F322" t="n">
-        <v>0.0062976</v>
+        <v>6.2976</v>
       </c>
     </row>
     <row r="323">
@@ -6823,7 +6823,7 @@
         <v>3.105</v>
       </c>
       <c r="F323" t="n">
-        <v>0.0063963</v>
+        <v>6.3963</v>
       </c>
     </row>
     <row r="324">
@@ -6843,7 +6843,7 @@
         <v>3.15</v>
       </c>
       <c r="F324" t="n">
-        <v>0.0064764</v>
+        <v>6.4764</v>
       </c>
     </row>
     <row r="325">
@@ -6863,7 +6863,7 @@
         <v>3.18</v>
       </c>
       <c r="F325" t="n">
-        <v>0.00656352</v>
+        <v>6.56352</v>
       </c>
     </row>
     <row r="326">
@@ -6883,7 +6883,7 @@
         <v>3.195</v>
       </c>
       <c r="F326" t="n">
-        <v>0.00659448</v>
+        <v>6.59448</v>
       </c>
     </row>
     <row r="327">
@@ -6903,7 +6903,7 @@
         <v>3.225</v>
       </c>
       <c r="F327" t="n">
-        <v>0.0066177</v>
+        <v>6.6177</v>
       </c>
     </row>
     <row r="328">
@@ -6923,7 +6923,7 @@
         <v>3.24</v>
       </c>
       <c r="F328" t="n">
-        <v>0.006700319999999999</v>
+        <v>6.70032</v>
       </c>
     </row>
     <row r="329">
@@ -6943,7 +6943,7 @@
         <v>3.255</v>
       </c>
       <c r="F329" t="n">
-        <v>0.00678342</v>
+        <v>6.78342</v>
       </c>
     </row>
     <row r="330">
@@ -6963,7 +6963,7 @@
         <v>3.33</v>
       </c>
       <c r="F330" t="n">
-        <v>0.007019640000000001</v>
+        <v>7.019640000000001</v>
       </c>
     </row>
     <row r="331">
@@ -6983,7 +6983,7 @@
         <v>3.3</v>
       </c>
       <c r="F331" t="n">
-        <v>0.0068772</v>
+        <v>6.8772</v>
       </c>
     </row>
     <row r="332">
@@ -7003,7 +7003,7 @@
         <v>3.33</v>
       </c>
       <c r="F332" t="n">
-        <v>0.0069264</v>
+        <v>6.9264</v>
       </c>
     </row>
     <row r="333">
@@ -7023,7 +7023,7 @@
         <v>3.375</v>
       </c>
       <c r="F333" t="n">
-        <v>0.007047</v>
+        <v>7.047000000000001</v>
       </c>
     </row>
     <row r="334">
@@ -7043,7 +7043,7 @@
         <v>3.39</v>
       </c>
       <c r="F334" t="n">
-        <v>0.00707832</v>
+        <v>7.07832</v>
       </c>
     </row>
     <row r="335">
@@ -7063,7 +7063,7 @@
         <v>3.435</v>
       </c>
       <c r="F335" t="n">
-        <v>0.00710358</v>
+        <v>7.10358</v>
       </c>
     </row>
     <row r="336">
@@ -7083,7 +7083,7 @@
         <v>3.465</v>
       </c>
       <c r="F336" t="n">
-        <v>0.0072765</v>
+        <v>7.2765</v>
       </c>
     </row>
     <row r="337">
@@ -7103,7 +7103,7 @@
         <v>3.495</v>
       </c>
       <c r="F337" t="n">
-        <v>0.0073395</v>
+        <v>7.339499999999999</v>
       </c>
     </row>
     <row r="338">
@@ -7123,7 +7123,7 @@
         <v>3.525</v>
       </c>
       <c r="F338" t="n">
-        <v>0.007374299999999999</v>
+        <v>7.3743</v>
       </c>
     </row>
     <row r="339">
@@ -7143,7 +7143,7 @@
         <v>3.54</v>
       </c>
       <c r="F339" t="n">
-        <v>0.007434000000000001</v>
+        <v>7.434000000000001</v>
       </c>
     </row>
     <row r="340">
@@ -7163,7 +7163,7 @@
         <v>3.585</v>
       </c>
       <c r="F340" t="n">
-        <v>0.007557180000000001</v>
+        <v>7.557180000000001</v>
       </c>
     </row>
     <row r="341">
@@ -7183,7 +7183,7 @@
         <v>3.615</v>
       </c>
       <c r="F341" t="n">
-        <v>0.00767826</v>
+        <v>7.67826</v>
       </c>
     </row>
     <row r="342">
@@ -7203,7 +7203,7 @@
         <v>3.645</v>
       </c>
       <c r="F342" t="n">
-        <v>0.007654500000000001</v>
+        <v>7.654500000000001</v>
       </c>
     </row>
     <row r="343">
@@ -7223,7 +7223,7 @@
         <v>3.675</v>
       </c>
       <c r="F343" t="n">
-        <v>0.007658699999999999</v>
+        <v>7.6587</v>
       </c>
     </row>
     <row r="344">
@@ -7243,7 +7243,7 @@
         <v>3.705</v>
       </c>
       <c r="F344" t="n">
-        <v>0.007824960000000001</v>
+        <v>7.824960000000001</v>
       </c>
     </row>
     <row r="345">
@@ -7263,7 +7263,7 @@
         <v>3.75</v>
       </c>
       <c r="F345" t="n">
-        <v>0.007845000000000001</v>
+        <v>7.845000000000002</v>
       </c>
     </row>
     <row r="346">
@@ -7283,7 +7283,7 @@
         <v>3.765</v>
       </c>
       <c r="F346" t="n">
-        <v>0.00793662</v>
+        <v>7.93662</v>
       </c>
     </row>
     <row r="347">
@@ -7303,7 +7303,7 @@
         <v>3.78</v>
       </c>
       <c r="F347" t="n">
-        <v>0.00804384</v>
+        <v>8.043839999999999</v>
       </c>
     </row>
     <row r="348">
@@ -7323,7 +7323,7 @@
         <v>3.825</v>
       </c>
       <c r="F348" t="n">
-        <v>0.008093700000000001</v>
+        <v>8.0937</v>
       </c>
     </row>
     <row r="349">
@@ -7343,7 +7343,7 @@
         <v>3.855</v>
       </c>
       <c r="F349" t="n">
-        <v>0.008188020000000001</v>
+        <v>8.18802</v>
       </c>
     </row>
     <row r="350">
@@ -7363,7 +7363,7 @@
         <v>3.885</v>
       </c>
       <c r="F350" t="n">
-        <v>0.00818958</v>
+        <v>8.189579999999999</v>
       </c>
     </row>
     <row r="351">
@@ -7383,7 +7383,7 @@
         <v>3.93</v>
       </c>
       <c r="F351" t="n">
-        <v>0.008394479999999999</v>
+        <v>8.39448</v>
       </c>
     </row>
     <row r="352">
@@ -7403,7 +7403,7 @@
         <v>3.99</v>
       </c>
       <c r="F352" t="n">
-        <v>0.008426880000000001</v>
+        <v>8.426880000000001</v>
       </c>
     </row>
     <row r="353">
@@ -7423,7 +7423,7 @@
         <v>4.05</v>
       </c>
       <c r="F353" t="n">
-        <v>0.008537400000000001</v>
+        <v>8.5374</v>
       </c>
     </row>
     <row r="354">
@@ -7443,7 +7443,7 @@
         <v>4.08</v>
       </c>
       <c r="F354" t="n">
-        <v>0.00876384</v>
+        <v>8.76384</v>
       </c>
     </row>
     <row r="355">
@@ -7463,7 +7463,7 @@
         <v>4.125</v>
       </c>
       <c r="F355" t="n">
-        <v>0.0088275</v>
+        <v>8.827500000000001</v>
       </c>
     </row>
     <row r="356">
@@ -7483,7 +7483,7 @@
         <v>4.17</v>
       </c>
       <c r="F356" t="n">
-        <v>0.00882372</v>
+        <v>8.82372</v>
       </c>
     </row>
     <row r="357">
@@ -7503,7 +7503,7 @@
         <v>4.245</v>
       </c>
       <c r="F357" t="n">
-        <v>0.009101280000000002</v>
+        <v>9.101280000000001</v>
       </c>
     </row>
     <row r="358">
@@ -7523,7 +7523,7 @@
         <v>4.29</v>
       </c>
       <c r="F358" t="n">
-        <v>0.009283560000000001</v>
+        <v>9.283560000000001</v>
       </c>
     </row>
     <row r="359">
@@ -7543,7 +7543,7 @@
         <v>4.365</v>
       </c>
       <c r="F359" t="n">
-        <v>0.009341100000000001</v>
+        <v>9.341100000000001</v>
       </c>
     </row>
     <row r="360">
@@ -7563,7 +7563,7 @@
         <v>4.425</v>
       </c>
       <c r="F360" t="n">
-        <v>0.009522600000000001</v>
+        <v>9.522600000000001</v>
       </c>
     </row>
     <row r="361">
@@ -7583,7 +7583,7 @@
         <v>4.47</v>
       </c>
       <c r="F361" t="n">
-        <v>0.009673080000000001</v>
+        <v>9.673080000000001</v>
       </c>
     </row>
     <row r="362">
@@ -7603,7 +7603,7 @@
         <v>4.484999999999999</v>
       </c>
       <c r="F362" t="n">
-        <v>0.009723479999999998</v>
+        <v>9.723479999999999</v>
       </c>
     </row>
     <row r="363">
@@ -7623,7 +7623,7 @@
         <v>4.515</v>
       </c>
       <c r="F363" t="n">
-        <v>0.009607920000000001</v>
+        <v>9.60792</v>
       </c>
     </row>
     <row r="364">
@@ -7643,7 +7643,7 @@
         <v>4.515</v>
       </c>
       <c r="F364" t="n">
-        <v>0.009625980000000001</v>
+        <v>9.62598</v>
       </c>
     </row>
     <row r="365">
@@ -7663,7 +7663,7 @@
         <v>4.5</v>
       </c>
       <c r="F365" t="n">
-        <v>0.009702000000000001</v>
+        <v>9.702</v>
       </c>
     </row>
     <row r="366">
@@ -7683,7 +7683,7 @@
         <v>4.5</v>
       </c>
       <c r="F366" t="n">
-        <v>0.009666000000000001</v>
+        <v>9.666</v>
       </c>
     </row>
     <row r="367">
@@ -7703,7 +7703,7 @@
         <v>4.5</v>
       </c>
       <c r="F367" t="n">
-        <v>0.009522000000000001</v>
+        <v>9.522</v>
       </c>
     </row>
     <row r="368">
@@ -7723,7 +7723,7 @@
         <v>4.5</v>
       </c>
       <c r="F368" t="n">
-        <v>0.009540000000000002</v>
+        <v>9.540000000000001</v>
       </c>
     </row>
     <row r="369">
@@ -7743,7 +7743,7 @@
         <v>4.515</v>
       </c>
       <c r="F369" t="n">
-        <v>0.009698219999999999</v>
+        <v>9.698219999999999</v>
       </c>
     </row>
     <row r="370">
@@ -7763,7 +7763,7 @@
         <v>4.53</v>
       </c>
       <c r="F370" t="n">
-        <v>0.00958548</v>
+        <v>9.58548</v>
       </c>
     </row>
     <row r="371">
@@ -7783,7 +7783,7 @@
         <v>4.545</v>
       </c>
       <c r="F371" t="n">
-        <v>0.00979902</v>
+        <v>9.799020000000001</v>
       </c>
     </row>
     <row r="372">
@@ -7803,7 +7803,7 @@
         <v>4.575</v>
       </c>
       <c r="F372" t="n">
-        <v>0.009827100000000002</v>
+        <v>9.827100000000002</v>
       </c>
     </row>
     <row r="373">
@@ -7823,7 +7823,7 @@
         <v>4.59</v>
       </c>
       <c r="F373" t="n">
-        <v>0.009896040000000002</v>
+        <v>9.896040000000001</v>
       </c>
     </row>
     <row r="374">
@@ -7843,7 +7843,7 @@
         <v>4.62</v>
       </c>
       <c r="F374" t="n">
-        <v>0.00999768</v>
+        <v>9.997680000000001</v>
       </c>
     </row>
     <row r="375">
@@ -7863,7 +7863,7 @@
         <v>4.635</v>
       </c>
       <c r="F375" t="n">
-        <v>0.00995598</v>
+        <v>9.95598</v>
       </c>
     </row>
     <row r="376">
@@ -7883,7 +7883,7 @@
         <v>4.665</v>
       </c>
       <c r="F376" t="n">
-        <v>0.01015104</v>
+        <v>10.15104</v>
       </c>
     </row>
     <row r="377">
@@ -7903,7 +7903,7 @@
         <v>4.71</v>
       </c>
       <c r="F377" t="n">
-        <v>0.01019244</v>
+        <v>10.19244</v>
       </c>
     </row>
     <row r="378">
@@ -7923,7 +7923,7 @@
         <v>4.725</v>
       </c>
       <c r="F378" t="n">
-        <v>0.0103194</v>
+        <v>10.3194</v>
       </c>
     </row>
     <row r="379">
@@ -7943,7 +7943,7 @@
         <v>4.77</v>
       </c>
       <c r="F379" t="n">
-        <v>0.01032228</v>
+        <v>10.32228</v>
       </c>
     </row>
     <row r="380">
@@ -7963,7 +7963,7 @@
         <v>4.8</v>
       </c>
       <c r="F380" t="n">
-        <v>0.0103488</v>
+        <v>10.3488</v>
       </c>
     </row>
     <row r="381">
@@ -7983,7 +7983,7 @@
         <v>4.845</v>
       </c>
       <c r="F381" t="n">
-        <v>0.0103683</v>
+        <v>10.3683</v>
       </c>
     </row>
     <row r="382">
@@ -8003,7 +8003,7 @@
         <v>4.89</v>
       </c>
       <c r="F382" t="n">
-        <v>0.01064064</v>
+        <v>10.64064</v>
       </c>
     </row>
     <row r="383">
@@ -8023,7 +8023,7 @@
         <v>4.95</v>
       </c>
       <c r="F383" t="n">
-        <v>0.010791</v>
+        <v>10.791</v>
       </c>
     </row>
     <row r="384">
@@ -8043,7 +8043,7 @@
         <v>5.01</v>
       </c>
       <c r="F384" t="n">
-        <v>0.0108216</v>
+        <v>10.8216</v>
       </c>
     </row>
     <row r="385">
@@ -8063,7 +8063,7 @@
         <v>5.055</v>
       </c>
       <c r="F385" t="n">
-        <v>0.01089858</v>
+        <v>10.89858</v>
       </c>
     </row>
     <row r="386">
@@ -8083,7 +8083,7 @@
         <v>5.115</v>
       </c>
       <c r="F386" t="n">
-        <v>0.01098702</v>
+        <v>10.98702</v>
       </c>
     </row>
     <row r="387">
@@ -8103,7 +8103,7 @@
         <v>5.16</v>
       </c>
       <c r="F387" t="n">
-        <v>0.0112488</v>
+        <v>11.2488</v>
       </c>
     </row>
     <row r="388">
@@ -8123,7 +8123,7 @@
         <v>5.19</v>
       </c>
       <c r="F388" t="n">
-        <v>0.01127268</v>
+        <v>11.27268</v>
       </c>
     </row>
     <row r="389">
@@ -8143,7 +8143,7 @@
         <v>5.25</v>
       </c>
       <c r="F389" t="n">
-        <v>0.011403</v>
+        <v>11.403</v>
       </c>
     </row>
     <row r="390">
@@ -8163,7 +8163,7 @@
         <v>5.31</v>
       </c>
       <c r="F390" t="n">
-        <v>0.01155456</v>
+        <v>11.55456</v>
       </c>
     </row>
     <row r="391">
@@ -8183,7 +8183,7 @@
         <v>5.37</v>
       </c>
       <c r="F391" t="n">
-        <v>0.01168512</v>
+        <v>11.68512</v>
       </c>
     </row>
     <row r="392">
@@ -8203,7 +8203,7 @@
         <v>5.415</v>
       </c>
       <c r="F392" t="n">
-        <v>0.01178304</v>
+        <v>11.78304</v>
       </c>
     </row>
     <row r="393">
@@ -8223,7 +8223,7 @@
         <v>5.475</v>
       </c>
       <c r="F393" t="n">
-        <v>0.0117822</v>
+        <v>11.7822</v>
       </c>
     </row>
     <row r="394">
@@ -8243,7 +8243,7 @@
         <v>5.535</v>
       </c>
       <c r="F394" t="n">
-        <v>0.01197774</v>
+        <v>11.97774</v>
       </c>
     </row>
     <row r="395">
@@ -8263,7 +8263,7 @@
         <v>5.7</v>
       </c>
       <c r="F395" t="n">
-        <v>0.0123804</v>
+        <v>12.3804</v>
       </c>
     </row>
     <row r="396">
@@ -8283,7 +8283,7 @@
         <v>5.654999999999999</v>
       </c>
       <c r="F396" t="n">
-        <v>0.01207908</v>
+        <v>12.07908</v>
       </c>
     </row>
     <row r="397">
@@ -8303,7 +8303,7 @@
         <v>5.7</v>
       </c>
       <c r="F397" t="n">
-        <v>0.0124032</v>
+        <v>12.4032</v>
       </c>
     </row>
     <row r="398">
@@ -8323,7 +8323,7 @@
         <v>5.774999999999999</v>
       </c>
       <c r="F398" t="n">
-        <v>0.0125664</v>
+        <v>12.5664</v>
       </c>
     </row>
     <row r="399">
@@ -8343,7 +8343,7 @@
         <v>5.865</v>
       </c>
       <c r="F399" t="n">
-        <v>0.01257456</v>
+        <v>12.57456</v>
       </c>
     </row>
     <row r="400">
@@ -8363,7 +8363,7 @@
         <v>5.925</v>
       </c>
       <c r="F400" t="n">
-        <v>0.0127743</v>
+        <v>12.7743</v>
       </c>
     </row>
     <row r="401">
@@ -8383,7 +8383,7 @@
         <v>6</v>
       </c>
       <c r="F401" t="n">
-        <v>0.013104</v>
+        <v>13.104</v>
       </c>
     </row>
     <row r="402">
@@ -8403,7 +8403,7 @@
         <v>6.075</v>
       </c>
       <c r="F402" t="n">
-        <v>0.0130491</v>
+        <v>13.0491</v>
       </c>
     </row>
     <row r="403">
@@ -8423,7 +8423,7 @@
         <v>6.149999999999999</v>
       </c>
       <c r="F403" t="n">
-        <v>0.013407</v>
+        <v>13.407</v>
       </c>
     </row>
     <row r="404">
@@ -8443,7 +8443,7 @@
         <v>6.24</v>
       </c>
       <c r="F404" t="n">
-        <v>0.01342848</v>
+        <v>13.42848</v>
       </c>
     </row>
     <row r="405">
@@ -8463,7 +8463,7 @@
         <v>6.359999999999999</v>
       </c>
       <c r="F405" t="n">
-        <v>0.01391568</v>
+        <v>13.91568</v>
       </c>
     </row>
     <row r="406">
@@ -8483,7 +8483,7 @@
         <v>6.495</v>
       </c>
       <c r="F406" t="n">
-        <v>0.01397724</v>
+        <v>13.97724</v>
       </c>
     </row>
     <row r="407">
@@ -8503,7 +8503,7 @@
         <v>6.614999999999999</v>
       </c>
       <c r="F407" t="n">
-        <v>0.01434132</v>
+        <v>14.34132</v>
       </c>
     </row>
     <row r="408">
@@ -8523,7 +8523,7 @@
         <v>6.75</v>
       </c>
       <c r="F408" t="n">
-        <v>0.014418</v>
+        <v>14.418</v>
       </c>
     </row>
     <row r="409">
@@ -8543,7 +8543,7 @@
         <v>6.885</v>
       </c>
       <c r="F409" t="n">
-        <v>0.01492668</v>
+        <v>14.92668</v>
       </c>
     </row>
     <row r="410">
@@ -8563,7 +8563,7 @@
         <v>7.035</v>
       </c>
       <c r="F410" t="n">
-        <v>0.01502676</v>
+        <v>15.02676</v>
       </c>
     </row>
     <row r="411">
@@ -8583,7 +8583,7 @@
         <v>7.199999999999999</v>
       </c>
       <c r="F411" t="n">
-        <v>0.0156384</v>
+        <v>15.6384</v>
       </c>
     </row>
     <row r="412">
@@ -8603,7 +8603,7 @@
         <v>7.35</v>
       </c>
       <c r="F412" t="n">
-        <v>0.0157584</v>
+        <v>15.7584</v>
       </c>
     </row>
     <row r="413">
@@ -8623,7 +8623,7 @@
         <v>7.5</v>
       </c>
       <c r="F413" t="n">
-        <v>0.0162</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="414">
@@ -8643,7 +8643,7 @@
         <v>7.649999999999999</v>
       </c>
       <c r="F414" t="n">
-        <v>0.0164934</v>
+        <v>16.4934</v>
       </c>
     </row>
     <row r="415">
@@ -8663,7 +8663,7 @@
         <v>7.785</v>
       </c>
       <c r="F415" t="n">
-        <v>0.01672218</v>
+        <v>16.72218</v>
       </c>
     </row>
     <row r="416">
@@ -8683,7 +8683,7 @@
         <v>7.935</v>
       </c>
       <c r="F416" t="n">
-        <v>0.01710786</v>
+        <v>17.10786</v>
       </c>
     </row>
     <row r="417">
@@ -8703,7 +8703,7 @@
         <v>8.07</v>
       </c>
       <c r="F417" t="n">
-        <v>0.01733436</v>
+        <v>17.33436</v>
       </c>
     </row>
     <row r="418">
@@ -8723,7 +8723,7 @@
         <v>8.19</v>
       </c>
       <c r="F418" t="n">
-        <v>0.01765764</v>
+        <v>17.65764</v>
       </c>
     </row>
     <row r="419">
@@ -8743,7 +8743,7 @@
         <v>8.265000000000001</v>
       </c>
       <c r="F419" t="n">
-        <v>0.01781934</v>
+        <v>17.81934</v>
       </c>
     </row>
     <row r="420">
@@ -8763,7 +8763,7 @@
         <v>8.34</v>
       </c>
       <c r="F420" t="n">
-        <v>0.01798104</v>
+        <v>17.98104</v>
       </c>
     </row>
     <row r="421">
@@ -8783,7 +8783,7 @@
         <v>8.385</v>
       </c>
       <c r="F421" t="n">
-        <v>0.01807806</v>
+        <v>18.07806</v>
       </c>
     </row>
     <row r="422">
@@ -8803,7 +8803,7 @@
         <v>8.504999999999999</v>
       </c>
       <c r="F422" t="n">
-        <v>0.01830276</v>
+        <v>18.30276</v>
       </c>
     </row>
     <row r="423">
@@ -8823,7 +8823,7 @@
         <v>8.775</v>
       </c>
       <c r="F423" t="n">
-        <v>0.0187434</v>
+        <v>18.7434</v>
       </c>
     </row>
     <row r="424">
@@ -8843,7 +8843,7 @@
         <v>9.389999999999999</v>
       </c>
       <c r="F424" t="n">
-        <v>0.01994436</v>
+        <v>19.94436</v>
       </c>
     </row>
     <row r="425">
@@ -8863,7 +8863,7 @@
         <v>10.38</v>
       </c>
       <c r="F425" t="n">
-        <v>0.02196408</v>
+        <v>21.96408</v>
       </c>
     </row>
     <row r="426">
@@ -8883,7 +8883,7 @@
         <v>11.13</v>
       </c>
       <c r="F426" t="n">
-        <v>0.0231504</v>
+        <v>23.1504</v>
       </c>
     </row>
     <row r="427">
@@ -8903,7 +8903,7 @@
         <v>11.4</v>
       </c>
       <c r="F427" t="n">
-        <v>0.0235296</v>
+        <v>23.5296</v>
       </c>
     </row>
     <row r="428">
@@ -8923,7 +8923,7 @@
         <v>11.58</v>
       </c>
       <c r="F428" t="n">
-        <v>0.02366952</v>
+        <v>23.66952</v>
       </c>
     </row>
     <row r="429">
@@ -8943,7 +8943,7 @@
         <v>11.715</v>
       </c>
       <c r="F429" t="n">
-        <v>0.02347686</v>
+        <v>23.47686</v>
       </c>
     </row>
     <row r="430">
@@ -8963,7 +8963,7 @@
         <v>11.82</v>
       </c>
       <c r="F430" t="n">
-        <v>0.02373456</v>
+        <v>23.73456</v>
       </c>
     </row>
     <row r="431">
@@ -8983,7 +8983,7 @@
         <v>11.985</v>
       </c>
       <c r="F431" t="n">
-        <v>0.02411382</v>
+        <v>24.11382</v>
       </c>
     </row>
     <row r="432">
@@ -9003,7 +9003,7 @@
         <v>12.135</v>
       </c>
       <c r="F432" t="n">
-        <v>0.02446416</v>
+        <v>24.46416</v>
       </c>
     </row>
     <row r="433">
@@ -9023,7 +9023,7 @@
         <v>12.375</v>
       </c>
       <c r="F433" t="n">
-        <v>0.025047</v>
+        <v>25.047</v>
       </c>
     </row>
     <row r="434">
@@ -9043,7 +9043,7 @@
         <v>12.63</v>
       </c>
       <c r="F434" t="n">
-        <v>0.02566416</v>
+        <v>25.66416</v>
       </c>
     </row>
     <row r="435">
@@ -9063,7 +9063,7 @@
         <v>12.96</v>
       </c>
       <c r="F435" t="n">
-        <v>0.02649024</v>
+        <v>26.49024</v>
       </c>
     </row>
     <row r="436">
@@ -9083,7 +9083,7 @@
         <v>13.44</v>
       </c>
       <c r="F436" t="n">
-        <v>0.0276864</v>
+        <v>27.6864</v>
       </c>
     </row>
     <row r="437">
@@ -9103,7 +9103,7 @@
         <v>13.92</v>
       </c>
       <c r="F437" t="n">
-        <v>0.02928768</v>
+        <v>29.28768</v>
       </c>
     </row>
     <row r="438">
@@ -9123,7 +9123,7 @@
         <v>14.49</v>
       </c>
       <c r="F438" t="n">
-        <v>0.03095064</v>
+        <v>30.95064</v>
       </c>
     </row>
     <row r="439">
@@ -9143,7 +9143,7 @@
         <v>15.09</v>
       </c>
       <c r="F439" t="n">
-        <v>0.0322926</v>
+        <v>32.2926</v>
       </c>
     </row>
     <row r="440">
@@ -9163,7 +9163,7 @@
         <v>15.705</v>
       </c>
       <c r="F440" t="n">
-        <v>0.0336087</v>
+        <v>33.6087</v>
       </c>
     </row>
     <row r="441">
@@ -9183,7 +9183,7 @@
         <v>16.365</v>
       </c>
       <c r="F441" t="n">
-        <v>0.03495564</v>
+        <v>34.95564</v>
       </c>
     </row>
     <row r="442">
@@ -9203,7 +9203,7 @@
         <v>17.1</v>
       </c>
       <c r="F442" t="n">
-        <v>0.0363888</v>
+        <v>36.3888</v>
       </c>
     </row>
     <row r="443">
@@ -9223,7 +9223,7 @@
         <v>18.03</v>
       </c>
       <c r="F443" t="n">
-        <v>0.03872844</v>
+        <v>38.72844000000001</v>
       </c>
     </row>
     <row r="444">
@@ -9243,7 +9243,7 @@
         <v>19.29</v>
       </c>
       <c r="F444" t="n">
-        <v>0.04266948</v>
+        <v>42.66948</v>
       </c>
     </row>
     <row r="445">
@@ -9263,7 +9263,7 @@
         <v>20.115</v>
       </c>
       <c r="F445" t="n">
-        <v>0.04377024</v>
+        <v>43.77024</v>
       </c>
     </row>
     <row r="446">
@@ -9283,7 +9283,7 @@
         <v>20.895</v>
       </c>
       <c r="F446" t="n">
-        <v>0.04605258</v>
+        <v>46.05258000000001</v>
       </c>
     </row>
     <row r="447">
@@ -9303,7 +9303,7 @@
         <v>21.855</v>
       </c>
       <c r="F447" t="n">
-        <v>0.04746906000000001</v>
+        <v>47.46906000000001</v>
       </c>
     </row>
     <row r="448">
@@ -9323,7 +9323,7 @@
         <v>23.52</v>
       </c>
       <c r="F448" t="n">
-        <v>0.05202624</v>
+        <v>52.02624</v>
       </c>
     </row>
     <row r="449">
@@ -9343,7 +9343,7 @@
         <v>25.485</v>
       </c>
       <c r="F449" t="n">
-        <v>0.05535342</v>
+        <v>55.35342</v>
       </c>
     </row>
     <row r="450">
@@ -9363,7 +9363,7 @@
         <v>25.815</v>
       </c>
       <c r="F450" t="n">
-        <v>0.05576039999999999</v>
+        <v>55.76039999999999</v>
       </c>
     </row>
     <row r="451">
@@ -9383,7 +9383,7 @@
         <v>23.07</v>
       </c>
       <c r="F451" t="n">
-        <v>0.05029260000000001</v>
+        <v>50.29260000000001</v>
       </c>
     </row>
     <row r="452">
@@ -9403,7 +9403,7 @@
         <v>21.285</v>
       </c>
       <c r="F452" t="n">
-        <v>0.0455499</v>
+        <v>45.54989999999999</v>
       </c>
     </row>
     <row r="453">
@@ -9423,7 +9423,7 @@
         <v>20.445</v>
       </c>
       <c r="F453" t="n">
-        <v>0.04448832</v>
+        <v>44.48831999999999</v>
       </c>
     </row>
     <row r="454">
@@ -9443,7 +9443,7 @@
         <v>26.67</v>
       </c>
       <c r="F454" t="n">
-        <v>0.05835396</v>
+        <v>58.35396</v>
       </c>
     </row>
     <row r="455">
@@ -9463,7 +9463,7 @@
         <v>31.725</v>
       </c>
       <c r="F455" t="n">
-        <v>0.0690336</v>
+        <v>69.03360000000001</v>
       </c>
     </row>
     <row r="456">
@@ -9483,7 +9483,7 @@
         <v>32.73</v>
       </c>
       <c r="F456" t="n">
-        <v>0.07122047999999999</v>
+        <v>71.22047999999999</v>
       </c>
     </row>
     <row r="457">
@@ -9503,7 +9503,7 @@
         <v>33.51</v>
       </c>
       <c r="F457" t="n">
-        <v>0.0730518</v>
+        <v>73.0518</v>
       </c>
     </row>
     <row r="458">
@@ -9523,7 +9523,7 @@
         <v>34.305</v>
       </c>
       <c r="F458" t="n">
-        <v>0.0747849</v>
+        <v>74.78490000000001</v>
       </c>
     </row>
     <row r="459">
@@ -9543,7 +9543,7 @@
         <v>35.07</v>
       </c>
       <c r="F459" t="n">
-        <v>0.07659288</v>
+        <v>76.59288000000001</v>
       </c>
     </row>
     <row r="460">
@@ -9563,7 +9563,7 @@
         <v>36.45</v>
       </c>
       <c r="F460" t="n">
-        <v>0.0807732</v>
+        <v>80.7732</v>
       </c>
     </row>
     <row r="461">
@@ -9583,7 +9583,7 @@
         <v>36.6</v>
       </c>
       <c r="F461" t="n">
-        <v>0.08022720000000001</v>
+        <v>80.22720000000001</v>
       </c>
     </row>
     <row r="462">
@@ -9603,7 +9603,7 @@
         <v>37.44</v>
       </c>
       <c r="F462" t="n">
-        <v>0.08176896</v>
+        <v>81.76896000000001</v>
       </c>
     </row>
     <row r="463">
@@ -9623,7 +9623,7 @@
         <v>38.295</v>
       </c>
       <c r="F463" t="n">
-        <v>0.08378946000000001</v>
+        <v>83.78946000000001</v>
       </c>
     </row>
     <row r="464">
@@ -9643,7 +9643,7 @@
         <v>39.165</v>
       </c>
       <c r="F464" t="n">
-        <v>0.08569302000000001</v>
+        <v>85.69302</v>
       </c>
     </row>
     <row r="465">
@@ -9663,7 +9663,7 @@
         <v>40.005</v>
       </c>
       <c r="F465" t="n">
-        <v>0.08753094</v>
+        <v>87.53094</v>
       </c>
     </row>
     <row r="466">
@@ -9683,7 +9683,7 @@
         <v>41.67</v>
       </c>
       <c r="F466" t="n">
-        <v>0.09117396000000001</v>
+        <v>91.17396000000001</v>
       </c>
     </row>
     <row r="467">
@@ -9703,7 +9703,7 @@
         <v>42.585</v>
       </c>
       <c r="F467" t="n">
-        <v>0.09317598000000001</v>
+        <v>93.17598000000001</v>
       </c>
     </row>
     <row r="468">
@@ -9723,7 +9723,7 @@
         <v>43.545</v>
       </c>
       <c r="F468" t="n">
-        <v>0.09527646000000002</v>
+        <v>95.27646000000001</v>
       </c>
     </row>
     <row r="469">
@@ -9743,7 +9743,7 @@
         <v>44.43</v>
       </c>
       <c r="F469" t="n">
-        <v>0.09739056</v>
+        <v>97.39056000000001</v>
       </c>
     </row>
     <row r="470">
@@ -9763,7 +9763,7 @@
         <v>45.39</v>
       </c>
       <c r="F470" t="n">
-        <v>0.09967644000000002</v>
+        <v>99.67644000000001</v>
       </c>
     </row>
     <row r="471">
@@ -9783,7 +9783,7 @@
         <v>46.53</v>
       </c>
       <c r="F471" t="n">
-        <v>0.10199376</v>
+        <v>101.99376</v>
       </c>
     </row>
     <row r="472">
@@ -9803,7 +9803,7 @@
         <v>47.31</v>
       </c>
       <c r="F472" t="n">
-        <v>0.10332504</v>
+        <v>103.32504</v>
       </c>
     </row>
     <row r="473">
@@ -9823,7 +9823,7 @@
         <v>48.015</v>
       </c>
       <c r="F473" t="n">
-        <v>0.10524888</v>
+        <v>105.24888</v>
       </c>
     </row>
     <row r="474">
@@ -9843,7 +9843,7 @@
         <v>46.905</v>
       </c>
       <c r="F474" t="n">
-        <v>0.10300338</v>
+        <v>103.00338</v>
       </c>
     </row>
     <row r="475">
@@ -9863,7 +9863,7 @@
         <v>39.555</v>
       </c>
       <c r="F475" t="n">
-        <v>0.08654634</v>
+        <v>86.54634</v>
       </c>
     </row>
     <row r="476">
@@ -9883,7 +9883,7 @@
         <v>38.04</v>
       </c>
       <c r="F476" t="n">
-        <v>0.08292719999999999</v>
+        <v>82.9272</v>
       </c>
     </row>
     <row r="477">
@@ -9903,7 +9903,7 @@
         <v>40.74</v>
       </c>
       <c r="F477" t="n">
-        <v>0.08930208000000002</v>
+        <v>89.30208000000002</v>
       </c>
     </row>
     <row r="478">
@@ -9923,7 +9923,7 @@
         <v>40.065</v>
       </c>
       <c r="F478" t="n">
-        <v>0.08766222</v>
+        <v>87.66222</v>
       </c>
     </row>
     <row r="479">
@@ -9943,7 +9943,7 @@
         <v>33.315</v>
       </c>
       <c r="F479" t="n">
-        <v>0.0726267</v>
+        <v>72.6267</v>
       </c>
     </row>
     <row r="480">
@@ -9963,7 +9963,7 @@
         <v>35.55</v>
       </c>
       <c r="F480" t="n">
-        <v>0.0777834</v>
+        <v>77.7834</v>
       </c>
     </row>
     <row r="481">
@@ -9983,7 +9983,7 @@
         <v>38.79</v>
       </c>
       <c r="F481" t="n">
-        <v>0.08487252000000001</v>
+        <v>84.87252000000001</v>
       </c>
     </row>
     <row r="482">
@@ -10003,7 +10003,7 @@
         <v>47.055</v>
       </c>
       <c r="F482" t="n">
-        <v>0.10333278</v>
+        <v>103.33278</v>
       </c>
     </row>
     <row r="483">
@@ -10023,7 +10023,7 @@
         <v>43.845</v>
       </c>
       <c r="F483" t="n">
-        <v>0.09575748000000001</v>
+        <v>95.75748</v>
       </c>
     </row>
     <row r="484">
@@ -10043,7 +10043,7 @@
         <v>49.065</v>
       </c>
       <c r="F484" t="n">
-        <v>0.10813926</v>
+        <v>108.13926</v>
       </c>
     </row>
     <row r="485">
@@ -10063,7 +10063,7 @@
         <v>49.485</v>
       </c>
       <c r="F485" t="n">
-        <v>0.108867</v>
+        <v>108.867</v>
       </c>
     </row>
     <row r="486">
@@ -10083,7 +10083,7 @@
         <v>49.725</v>
       </c>
       <c r="F486" t="n">
-        <v>0.1089972</v>
+        <v>108.9972</v>
       </c>
     </row>
     <row r="487">
@@ -10103,7 +10103,7 @@
         <v>49.95</v>
       </c>
       <c r="F487" t="n">
-        <v>0.1092906</v>
+        <v>109.2906</v>
       </c>
     </row>
     <row r="488">
@@ -10123,7 +10123,7 @@
         <v>50.265</v>
       </c>
       <c r="F488" t="n">
-        <v>0.10997982</v>
+        <v>109.97982</v>
       </c>
     </row>
     <row r="489">
@@ -10143,7 +10143,7 @@
         <v>50.595</v>
       </c>
       <c r="F489" t="n">
-        <v>0.11110662</v>
+        <v>111.10662</v>
       </c>
     </row>
     <row r="490">
@@ -10163,7 +10163,7 @@
         <v>50.94</v>
       </c>
       <c r="F490" t="n">
-        <v>0.112068</v>
+        <v>112.068</v>
       </c>
     </row>
     <row r="491">
@@ -10183,7 +10183,7 @@
         <v>51.23999999999999</v>
       </c>
       <c r="F491" t="n">
-        <v>0.11231808</v>
+        <v>112.31808</v>
       </c>
     </row>
     <row r="492">
@@ -10203,7 +10203,7 @@
         <v>51.6</v>
       </c>
       <c r="F492" t="n">
-        <v>0.1131072</v>
+        <v>113.1072</v>
       </c>
     </row>
     <row r="493">
@@ -10223,7 +10223,7 @@
         <v>52.02</v>
       </c>
       <c r="F493" t="n">
-        <v>0.11402784</v>
+        <v>114.02784</v>
       </c>
     </row>
     <row r="494">
@@ -10243,7 +10243,7 @@
         <v>52.44</v>
       </c>
       <c r="F494" t="n">
-        <v>0.11515824</v>
+        <v>115.15824</v>
       </c>
     </row>
     <row r="495">
@@ -10263,7 +10263,7 @@
         <v>52.905</v>
       </c>
       <c r="F495" t="n">
-        <v>0.11617938</v>
+        <v>116.17938</v>
       </c>
     </row>
     <row r="496">
@@ -10283,7 +10283,7 @@
         <v>53.445</v>
       </c>
       <c r="F496" t="n">
-        <v>0.11715144</v>
+        <v>117.15144</v>
       </c>
     </row>
     <row r="497">
@@ -10303,7 +10303,7 @@
         <v>54.015</v>
       </c>
       <c r="F497" t="n">
-        <v>0.118833</v>
+        <v>118.833</v>
       </c>
     </row>
     <row r="498">
@@ -10323,7 +10323,7 @@
         <v>54.645</v>
       </c>
       <c r="F498" t="n">
-        <v>0.11934468</v>
+        <v>119.34468</v>
       </c>
     </row>
     <row r="499">
@@ -10343,7 +10343,7 @@
         <v>55.32</v>
       </c>
       <c r="F499" t="n">
-        <v>0.12104016</v>
+        <v>121.04016</v>
       </c>
     </row>
     <row r="500">
@@ -10363,7 +10363,7 @@
         <v>56.01</v>
       </c>
       <c r="F500" t="n">
-        <v>0.12277392</v>
+        <v>122.77392</v>
       </c>
     </row>
     <row r="501">
@@ -10383,7 +10383,7 @@
         <v>56.7</v>
       </c>
       <c r="F501" t="n">
-        <v>0.12474</v>
+        <v>124.74</v>
       </c>
     </row>
     <row r="502">
@@ -10403,7 +10403,7 @@
         <v>57.33</v>
       </c>
       <c r="F502" t="n">
-        <v>0.126126</v>
+        <v>126.126</v>
       </c>
     </row>
     <row r="503">
@@ -10423,7 +10423,7 @@
         <v>57.96</v>
       </c>
       <c r="F503" t="n">
-        <v>0.12704832</v>
+        <v>127.04832</v>
       </c>
     </row>
     <row r="504">
@@ -10443,7 +10443,7 @@
         <v>58.575</v>
       </c>
       <c r="F504" t="n">
-        <v>0.1290993</v>
+        <v>129.0993</v>
       </c>
     </row>
     <row r="505">
@@ -10463,7 +10463,7 @@
         <v>59.19</v>
       </c>
       <c r="F505" t="n">
-        <v>0.12998124</v>
+        <v>129.98124</v>
       </c>
     </row>
     <row r="506">
@@ -10483,7 +10483,7 @@
         <v>59.82</v>
       </c>
       <c r="F506" t="n">
-        <v>0.13208256</v>
+        <v>132.08256</v>
       </c>
     </row>
     <row r="507">
@@ -10503,7 +10503,7 @@
         <v>60.45</v>
       </c>
       <c r="F507" t="n">
-        <v>0.1327482</v>
+        <v>132.7482</v>
       </c>
     </row>
     <row r="508">
@@ -10523,7 +10523,7 @@
         <v>61.095</v>
       </c>
       <c r="F508" t="n">
-        <v>0.13416462</v>
+        <v>134.16462</v>
       </c>
     </row>
     <row r="509">
@@ -10543,7 +10543,7 @@
         <v>61.905</v>
       </c>
       <c r="F509" t="n">
-        <v>0.13668624</v>
+        <v>136.68624</v>
       </c>
     </row>
     <row r="510">
@@ -10563,7 +10563,7 @@
         <v>62.58</v>
       </c>
       <c r="F510" t="n">
-        <v>0.137676</v>
+        <v>137.676</v>
       </c>
     </row>
     <row r="511">
@@ -10583,7 +10583,7 @@
         <v>63.61499999999999</v>
       </c>
       <c r="F511" t="n">
-        <v>0.139953</v>
+        <v>139.953</v>
       </c>
     </row>
     <row r="512">
@@ -10603,7 +10603,7 @@
         <v>62.31</v>
       </c>
       <c r="F512" t="n">
-        <v>0.13683276</v>
+        <v>136.83276</v>
       </c>
     </row>
     <row r="513">
@@ -10623,7 +10623,7 @@
         <v>63.61499999999999</v>
       </c>
       <c r="F513" t="n">
-        <v>0.13944408</v>
+        <v>139.44408</v>
       </c>
     </row>
     <row r="514">
@@ -10643,7 +10643,7 @@
         <v>57.675</v>
       </c>
       <c r="F514" t="n">
-        <v>0.1257315</v>
+        <v>125.7315</v>
       </c>
     </row>
     <row r="515">
@@ -10663,7 +10663,7 @@
         <v>53.1</v>
       </c>
       <c r="F515" t="n">
-        <v>0.11682</v>
+        <v>116.82</v>
       </c>
     </row>
     <row r="516">
@@ -10683,7 +10683,7 @@
         <v>58.605</v>
       </c>
       <c r="F516" t="n">
-        <v>0.12916542</v>
+        <v>129.16542</v>
       </c>
     </row>
     <row r="517">
@@ -10703,7 +10703,7 @@
         <v>66.91499999999999</v>
       </c>
       <c r="F517" t="n">
-        <v>0.14774832</v>
+        <v>147.74832</v>
       </c>
     </row>
     <row r="518">
@@ -10723,7 +10723,7 @@
         <v>67.25999999999999</v>
       </c>
       <c r="F518" t="n">
-        <v>0.14958624</v>
+        <v>149.58624</v>
       </c>
     </row>
     <row r="519">
@@ -10743,7 +10743,7 @@
         <v>67.89</v>
       </c>
       <c r="F519" t="n">
-        <v>0.149358</v>
+        <v>149.358</v>
       </c>
     </row>
     <row r="520">
@@ -10763,7 +10763,7 @@
         <v>67.30499999999999</v>
       </c>
       <c r="F520" t="n">
-        <v>0.14860944</v>
+        <v>148.60944</v>
       </c>
     </row>
     <row r="521">
@@ -10783,7 +10783,7 @@
         <v>66.375</v>
       </c>
       <c r="F521" t="n">
-        <v>0.146556</v>
+        <v>146.556</v>
       </c>
     </row>
     <row r="522">
@@ -10803,7 +10803,7 @@
         <v>64.905</v>
       </c>
       <c r="F522" t="n">
-        <v>0.14331024</v>
+        <v>143.31024</v>
       </c>
     </row>
     <row r="523">
@@ -10823,7 +10823,7 @@
         <v>62.535</v>
       </c>
       <c r="F523" t="n">
-        <v>0.137577</v>
+        <v>137.577</v>
       </c>
     </row>
     <row r="524">
@@ -10843,7 +10843,7 @@
         <v>63.555</v>
       </c>
       <c r="F524" t="n">
-        <v>0.14007522</v>
+        <v>140.07522</v>
       </c>
     </row>
     <row r="525">
@@ -10863,7 +10863,7 @@
         <v>67.23</v>
       </c>
       <c r="F525" t="n">
-        <v>0.14817492</v>
+        <v>148.17492</v>
       </c>
     </row>
     <row r="526">
@@ -10883,7 +10883,7 @@
         <v>71.00999999999999</v>
       </c>
       <c r="F526" t="n">
-        <v>0.15735816</v>
+        <v>157.35816</v>
       </c>
     </row>
     <row r="527">
@@ -10903,7 +10903,7 @@
         <v>72.14999999999999</v>
       </c>
       <c r="F527" t="n">
-        <v>0.1613274</v>
+        <v>161.3274</v>
       </c>
     </row>
     <row r="528">
@@ -10923,7 +10923,7 @@
         <v>72.92999999999999</v>
       </c>
       <c r="F528" t="n">
-        <v>0.16248804</v>
+        <v>162.48804</v>
       </c>
     </row>
     <row r="529">
@@ -10943,7 +10943,7 @@
         <v>73.73999999999999</v>
       </c>
       <c r="F529" t="n">
-        <v>0.16694736</v>
+        <v>166.94736</v>
       </c>
     </row>
     <row r="530">
@@ -10963,7 +10963,7 @@
         <v>74.61</v>
       </c>
       <c r="F530" t="n">
-        <v>0.16652952</v>
+        <v>166.52952</v>
       </c>
     </row>
     <row r="531">
@@ -10983,7 +10983,7 @@
         <v>75.56999999999999</v>
       </c>
       <c r="F531" t="n">
-        <v>0.16746312</v>
+        <v>167.46312</v>
       </c>
     </row>
     <row r="532">
@@ -11003,7 +11003,7 @@
         <v>76.34999999999999</v>
       </c>
       <c r="F532" t="n">
-        <v>0.171024</v>
+        <v>171.024</v>
       </c>
     </row>
     <row r="533">
@@ -11023,7 +11023,7 @@
         <v>76.935</v>
       </c>
       <c r="F533" t="n">
-        <v>0.17418084</v>
+        <v>174.18084</v>
       </c>
     </row>
     <row r="534">
@@ -11043,7 +11043,7 @@
         <v>77.355</v>
       </c>
       <c r="F534" t="n">
-        <v>0.1748223</v>
+        <v>174.8223</v>
       </c>
     </row>
     <row r="535">
@@ -11063,7 +11063,7 @@
         <v>78.345</v>
       </c>
       <c r="F535" t="n">
-        <v>0.1786266</v>
+        <v>178.6266</v>
       </c>
     </row>
     <row r="536">
@@ -11083,7 +11083,7 @@
         <v>79.73999999999999</v>
       </c>
       <c r="F536" t="n">
-        <v>0.18372096</v>
+        <v>183.72096</v>
       </c>
     </row>
     <row r="537">
@@ -11103,7 +11103,7 @@
         <v>81.48</v>
       </c>
       <c r="F537" t="n">
-        <v>0.18544848</v>
+        <v>185.44848</v>
       </c>
     </row>
     <row r="538">
@@ -11123,7 +11123,7 @@
         <v>82.05</v>
       </c>
       <c r="F538" t="n">
-        <v>0.1883868</v>
+        <v>188.3868</v>
       </c>
     </row>
     <row r="539">
@@ -11143,7 +11143,7 @@
         <v>73.64999999999999</v>
       </c>
       <c r="F539" t="n">
-        <v>0.163503</v>
+        <v>163.503</v>
       </c>
     </row>
     <row r="540">
@@ -11163,7 +11163,7 @@
         <v>80.925</v>
       </c>
       <c r="F540" t="n">
-        <v>0.1822431</v>
+        <v>182.2431</v>
       </c>
     </row>
     <row r="541">
@@ -11183,7 +11183,7 @@
         <v>83.145</v>
       </c>
       <c r="F541" t="n">
-        <v>0.1912335</v>
+        <v>191.2335</v>
       </c>
     </row>
     <row r="542">
@@ -11203,7 +11203,7 @@
         <v>83.295</v>
       </c>
       <c r="F542" t="n">
-        <v>0.18791352</v>
+        <v>187.91352</v>
       </c>
     </row>
     <row r="543">
@@ -11223,7 +11223,7 @@
         <v>83.64</v>
       </c>
       <c r="F543" t="n">
-        <v>0.19036464</v>
+        <v>190.36464</v>
       </c>
     </row>
     <row r="544">
@@ -11243,7 +11243,7 @@
         <v>83.565</v>
       </c>
       <c r="F544" t="n">
-        <v>0.18952542</v>
+        <v>189.52542</v>
       </c>
     </row>
     <row r="545">
@@ -11263,7 +11263,7 @@
         <v>83.31</v>
       </c>
       <c r="F545" t="n">
-        <v>0.19061328</v>
+        <v>190.61328</v>
       </c>
     </row>
     <row r="546">
@@ -11283,7 +11283,7 @@
         <v>83.19</v>
       </c>
       <c r="F546" t="n">
-        <v>0.18867492</v>
+        <v>188.67492</v>
       </c>
     </row>
     <row r="547">
@@ -11303,7 +11303,7 @@
         <v>81.75</v>
       </c>
       <c r="F547" t="n">
-        <v>0.185409</v>
+        <v>185.409</v>
       </c>
     </row>
     <row r="548">
@@ -11323,7 +11323,7 @@
         <v>68.86499999999999</v>
       </c>
       <c r="F548" t="n">
-        <v>0.1528803</v>
+        <v>152.8803</v>
       </c>
     </row>
     <row r="549">
@@ -11343,7 +11343,7 @@
         <v>78.61499999999999</v>
       </c>
       <c r="F549" t="n">
-        <v>0.17861328</v>
+        <v>178.61328</v>
       </c>
     </row>
     <row r="550">
@@ -11363,7 +11363,7 @@
         <v>78.855</v>
       </c>
       <c r="F550" t="n">
-        <v>0.17915856</v>
+        <v>179.15856</v>
       </c>
     </row>
     <row r="551">
@@ -11383,7 +11383,7 @@
         <v>85.41</v>
       </c>
       <c r="F551" t="n">
-        <v>0.20259252</v>
+        <v>202.59252</v>
       </c>
     </row>
     <row r="552">
@@ -11403,7 +11403,7 @@
         <v>88.44</v>
       </c>
       <c r="F552" t="n">
-        <v>0.21331728</v>
+        <v>213.31728</v>
       </c>
     </row>
     <row r="553">
@@ -11423,7 +11423,7 @@
         <v>90.11999999999999</v>
       </c>
       <c r="F553" t="n">
-        <v>0.20979936</v>
+        <v>209.79936</v>
       </c>
     </row>
     <row r="554">
@@ -11443,7 +11443,7 @@
         <v>87.17999999999999</v>
       </c>
       <c r="F554" t="n">
-        <v>0.1987704</v>
+        <v>198.7704</v>
       </c>
     </row>
     <row r="555">
@@ -11463,7 +11463,7 @@
         <v>88.17</v>
       </c>
       <c r="F555" t="n">
-        <v>0.20420172</v>
+        <v>204.20172</v>
       </c>
     </row>
     <row r="556">
@@ -11483,7 +11483,7 @@
         <v>89.97</v>
       </c>
       <c r="F556" t="n">
-        <v>0.2177274</v>
+        <v>217.7274</v>
       </c>
     </row>
     <row r="557">
@@ -11503,7 +11503,7 @@
         <v>90.23999999999999</v>
       </c>
       <c r="F557" t="n">
-        <v>0.2129664</v>
+        <v>212.9664</v>
       </c>
     </row>
     <row r="558">
@@ -11523,7 +11523,7 @@
         <v>90.89999999999999</v>
       </c>
       <c r="F558" t="n">
-        <v>0.2196144</v>
+        <v>219.6144</v>
       </c>
     </row>
     <row r="559">
@@ -11543,7 +11543,7 @@
         <v>91.73999999999999</v>
       </c>
       <c r="F559" t="n">
-        <v>0.21870816</v>
+        <v>218.70816</v>
       </c>
     </row>
     <row r="560">
@@ -11563,7 +11563,7 @@
         <v>92.38499999999999</v>
       </c>
       <c r="F560" t="n">
-        <v>0.21691998</v>
+        <v>216.91998</v>
       </c>
     </row>
     <row r="561">
@@ -11583,7 +11583,7 @@
         <v>93.13499999999999</v>
       </c>
       <c r="F561" t="n">
-        <v>0.2142105</v>
+        <v>214.2105</v>
       </c>
     </row>
     <row r="562">
@@ -11603,7 +11603,7 @@
         <v>93.075</v>
       </c>
       <c r="F562" t="n">
-        <v>0.2200293</v>
+        <v>220.0293</v>
       </c>
     </row>
     <row r="563">
@@ -11623,7 +11623,7 @@
         <v>86.505</v>
       </c>
       <c r="F563" t="n">
-        <v>0.20207568</v>
+        <v>202.07568</v>
       </c>
     </row>
     <row r="564">
@@ -11643,7 +11643,7 @@
         <v>87.315</v>
       </c>
       <c r="F564" t="n">
-        <v>0.20222154</v>
+        <v>202.22154</v>
       </c>
     </row>
     <row r="565">
@@ -11663,7 +11663,7 @@
         <v>90.045</v>
       </c>
       <c r="F565" t="n">
-        <v>0.21178584</v>
+        <v>211.78584</v>
       </c>
     </row>
     <row r="566">
@@ -11683,7 +11683,7 @@
         <v>71.97</v>
       </c>
       <c r="F566" t="n">
-        <v>0.16351584</v>
+        <v>163.51584</v>
       </c>
     </row>
     <row r="567">
@@ -11703,7 +11703,7 @@
         <v>79.38</v>
       </c>
       <c r="F567" t="n">
-        <v>0.18003384</v>
+        <v>180.03384</v>
       </c>
     </row>
     <row r="568">
@@ -11723,7 +11723,7 @@
         <v>79.73999999999999</v>
       </c>
       <c r="F568" t="n">
-        <v>0.18403992</v>
+        <v>184.03992</v>
       </c>
     </row>
     <row r="569">
@@ -11743,7 +11743,7 @@
         <v>82.155</v>
       </c>
       <c r="F569" t="n">
-        <v>0.18862788</v>
+        <v>188.62788</v>
       </c>
     </row>
     <row r="570">
@@ -11763,7 +11763,7 @@
         <v>74.28</v>
       </c>
       <c r="F570" t="n">
-        <v>0.16698144</v>
+        <v>166.98144</v>
       </c>
     </row>
     <row r="571">
@@ -11783,7 +11783,7 @@
         <v>92.78999999999999</v>
       </c>
       <c r="F571" t="n">
-        <v>0.21935556</v>
+        <v>219.35556</v>
       </c>
     </row>
     <row r="572">
@@ -11803,7 +11803,7 @@
         <v>94.53</v>
       </c>
       <c r="F572" t="n">
-        <v>0.22611576</v>
+        <v>226.11576</v>
       </c>
     </row>
     <row r="573">
@@ -11823,7 +11823,7 @@
         <v>94.41</v>
       </c>
       <c r="F573" t="n">
-        <v>0.2303604</v>
+        <v>230.3604</v>
       </c>
     </row>
     <row r="574">
@@ -11843,7 +11843,7 @@
         <v>94.56</v>
       </c>
       <c r="F574" t="n">
-        <v>0.22240512</v>
+        <v>222.40512</v>
       </c>
     </row>
     <row r="575">
@@ -11863,7 +11863,7 @@
         <v>79.2</v>
       </c>
       <c r="F575" t="n">
-        <v>0.1865952</v>
+        <v>186.5952</v>
       </c>
     </row>
     <row r="576">
@@ -11883,7 +11883,7 @@
         <v>78.27</v>
       </c>
       <c r="F576" t="n">
-        <v>0.18064716</v>
+        <v>180.64716</v>
       </c>
     </row>
     <row r="577">
@@ -11903,7 +11903,7 @@
         <v>96.20999999999999</v>
       </c>
       <c r="F577" t="n">
-        <v>0.23321304</v>
+        <v>233.21304</v>
       </c>
     </row>
     <row r="578">
@@ -11923,7 +11923,7 @@
         <v>95.535</v>
       </c>
       <c r="F578" t="n">
-        <v>0.22966614</v>
+        <v>229.66614</v>
       </c>
     </row>
     <row r="579">
@@ -11943,7 +11943,7 @@
         <v>95.75999999999999</v>
       </c>
       <c r="F579" t="n">
-        <v>0.23442048</v>
+        <v>234.42048</v>
       </c>
     </row>
     <row r="580">
@@ -11963,7 +11963,7 @@
         <v>95.88</v>
       </c>
       <c r="F580" t="n">
-        <v>0.23279664</v>
+        <v>232.79664</v>
       </c>
     </row>
     <row r="581">
@@ -11983,7 +11983,7 @@
         <v>96.23999999999999</v>
       </c>
       <c r="F581" t="n">
-        <v>0.2425248</v>
+        <v>242.5248</v>
       </c>
     </row>
     <row r="582">
@@ -12003,7 +12003,7 @@
         <v>96.69</v>
       </c>
       <c r="F582" t="n">
-        <v>0.24017796</v>
+        <v>240.17796</v>
       </c>
     </row>
     <row r="583">
@@ -12023,7 +12023,7 @@
         <v>96.88499999999999</v>
       </c>
       <c r="F583" t="n">
-        <v>0.23329908</v>
+        <v>233.29908</v>
       </c>
     </row>
     <row r="584">
@@ -12043,7 +12043,7 @@
         <v>97.2</v>
       </c>
       <c r="F584" t="n">
-        <v>0.2480544</v>
+        <v>248.0544</v>
       </c>
     </row>
     <row r="585">
@@ -12063,7 +12063,7 @@
         <v>97.67999999999999</v>
       </c>
       <c r="F585" t="n">
-        <v>0.23755776</v>
+        <v>237.55776</v>
       </c>
     </row>
     <row r="586">
@@ -12083,7 +12083,7 @@
         <v>98.08499999999999</v>
       </c>
       <c r="F586" t="n">
-        <v>0.24403548</v>
+        <v>244.03548</v>
       </c>
     </row>
     <row r="587">
@@ -12103,7 +12103,7 @@
         <v>98.44499999999999</v>
       </c>
       <c r="F587" t="n">
-        <v>0.23193642</v>
+        <v>231.93642</v>
       </c>
     </row>
     <row r="588">
@@ -12123,7 +12123,7 @@
         <v>98.7</v>
       </c>
       <c r="F588" t="n">
-        <v>0.2471448</v>
+        <v>247.1448</v>
       </c>
     </row>
     <row r="589">
@@ -12143,7 +12143,7 @@
         <v>100.62</v>
       </c>
       <c r="F589" t="n">
-        <v>0.26281944</v>
+        <v>262.81944</v>
       </c>
     </row>
     <row r="590">
@@ -12163,7 +12163,7 @@
         <v>99.23999999999999</v>
       </c>
       <c r="F590" t="n">
-        <v>0.25127568</v>
+        <v>251.27568</v>
       </c>
     </row>
     <row r="591">
@@ -12183,7 +12183,7 @@
         <v>99.49499999999999</v>
       </c>
       <c r="F591" t="n">
-        <v>0.25152336</v>
+        <v>251.52336</v>
       </c>
     </row>
     <row r="592">
@@ -12203,7 +12203,7 @@
         <v>99.75</v>
       </c>
       <c r="F592" t="n">
-        <v>0.242592</v>
+        <v>242.592</v>
       </c>
     </row>
     <row r="593">
@@ -12223,7 +12223,7 @@
         <v>99.98999999999999</v>
       </c>
       <c r="F593" t="n">
-        <v>0.2459754</v>
+        <v>245.9754</v>
       </c>
     </row>
     <row r="594">
@@ -12243,7 +12243,7 @@
         <v>100.455</v>
       </c>
       <c r="F594" t="n">
-        <v>0.24591384</v>
+        <v>245.91384</v>
       </c>
     </row>
     <row r="595">
@@ -12263,7 +12263,7 @@
         <v>100.845</v>
       </c>
       <c r="F595" t="n">
-        <v>0.22871646</v>
+        <v>228.71646</v>
       </c>
     </row>
     <row r="596">
@@ -12283,7 +12283,7 @@
         <v>101.085</v>
       </c>
       <c r="F596" t="n">
-        <v>0.24786042</v>
+        <v>247.86042</v>
       </c>
     </row>
     <row r="597">
@@ -12303,7 +12303,7 @@
         <v>101.475</v>
       </c>
       <c r="F597" t="n">
-        <v>0.251658</v>
+        <v>251.658</v>
       </c>
     </row>
     <row r="598">
@@ -12323,7 +12323,7 @@
         <v>101.835</v>
       </c>
       <c r="F598" t="n">
-        <v>0.2545875</v>
+        <v>254.5875</v>
       </c>
     </row>
     <row r="599">
@@ -12343,7 +12343,7 @@
         <v>102.12</v>
       </c>
       <c r="F599" t="n">
-        <v>0.2430456</v>
+        <v>243.0456</v>
       </c>
     </row>
     <row r="600">
@@ -12363,7 +12363,7 @@
         <v>102.42</v>
       </c>
       <c r="F600" t="n">
-        <v>0.25727904</v>
+        <v>257.27904</v>
       </c>
     </row>
     <row r="601">
@@ -12383,7 +12383,7 @@
         <v>102.84</v>
       </c>
       <c r="F601" t="n">
-        <v>0.2496955199999999</v>
+        <v>249.6955199999999</v>
       </c>
     </row>
     <row r="602">
@@ -12403,7 +12403,7 @@
         <v>103.14</v>
       </c>
       <c r="F602" t="n">
-        <v>0.27971568</v>
+        <v>279.71568</v>
       </c>
     </row>
     <row r="603">
@@ -12423,7 +12423,7 @@
         <v>103.35</v>
       </c>
       <c r="F603" t="n">
-        <v>0.2691234</v>
+        <v>269.1234</v>
       </c>
     </row>
     <row r="604">
@@ -12443,7 +12443,7 @@
         <v>103.65</v>
       </c>
       <c r="F604" t="n">
-        <v>0.246687</v>
+        <v>246.687</v>
       </c>
     </row>
     <row r="605">
@@ -12463,7 +12463,7 @@
         <v>103.74</v>
       </c>
       <c r="F605" t="n">
-        <v>0.25354056</v>
+        <v>253.54056</v>
       </c>
     </row>
     <row r="606">
@@ -12483,7 +12483,7 @@
         <v>103.95</v>
       </c>
       <c r="F606" t="n">
-        <v>0.2690226</v>
+        <v>269.0226</v>
       </c>
     </row>
     <row r="607">
@@ -12503,7 +12503,7 @@
         <v>104.145</v>
       </c>
       <c r="F607" t="n">
-        <v>0.26369514</v>
+        <v>263.69514</v>
       </c>
     </row>
     <row r="608">
@@ -12523,7 +12523,7 @@
         <v>104.355</v>
       </c>
       <c r="F608" t="n">
-        <v>0.25838298</v>
+        <v>258.38298</v>
       </c>
     </row>
     <row r="609">
@@ -12543,7 +12543,7 @@
         <v>104.64</v>
       </c>
       <c r="F609" t="n">
-        <v>0.26118144</v>
+        <v>261.18144</v>
       </c>
     </row>
     <row r="610">
@@ -12563,7 +12563,7 @@
         <v>104.955</v>
       </c>
       <c r="F610" t="n">
-        <v>0.27204336</v>
+        <v>272.04336</v>
       </c>
     </row>
     <row r="611">
@@ -12583,7 +12583,7 @@
         <v>105.195</v>
       </c>
       <c r="F611" t="n">
-        <v>0.26214594</v>
+        <v>262.14594</v>
       </c>
     </row>
     <row r="612">
@@ -12603,7 +12603,7 @@
         <v>105.69</v>
       </c>
       <c r="F612" t="n">
-        <v>0.27817608</v>
+        <v>278.17608</v>
       </c>
     </row>
     <row r="613">
@@ -12623,7 +12623,7 @@
         <v>106.08</v>
       </c>
       <c r="F613" t="n">
-        <v>0.2715648</v>
+        <v>271.5648</v>
       </c>
     </row>
     <row r="614">
@@ -12643,7 +12643,7 @@
         <v>106.41</v>
       </c>
       <c r="F614" t="n">
-        <v>0.28049676</v>
+        <v>280.49676</v>
       </c>
     </row>
     <row r="615">
@@ -12663,7 +12663,7 @@
         <v>106.665</v>
       </c>
       <c r="F615" t="n">
-        <v>0.26495586</v>
+        <v>264.95586</v>
       </c>
     </row>
     <row r="616">
@@ -12683,7 +12683,7 @@
         <v>106.86</v>
       </c>
       <c r="F616" t="n">
-        <v>0.2821104</v>
+        <v>282.1104</v>
       </c>
     </row>
     <row r="617">
@@ -12703,7 +12703,7 @@
         <v>107.19</v>
       </c>
       <c r="F617" t="n">
-        <v>0.2765502</v>
+        <v>276.5502</v>
       </c>
     </row>
     <row r="618">
@@ -12723,7 +12723,7 @@
         <v>107.505</v>
       </c>
       <c r="F618" t="n">
-        <v>0.27349272</v>
+        <v>273.49272</v>
       </c>
     </row>
     <row r="619">
@@ -12743,7 +12743,7 @@
         <v>108.06</v>
       </c>
       <c r="F619" t="n">
-        <v>0.26625984</v>
+        <v>266.2598400000001</v>
       </c>
     </row>
     <row r="620">
@@ -12763,7 +12763,7 @@
         <v>103.38</v>
       </c>
       <c r="F620" t="n">
-        <v>0.237774</v>
+        <v>237.774</v>
       </c>
     </row>
     <row r="621">
@@ -12783,7 +12783,7 @@
         <v>57.285</v>
       </c>
       <c r="F621" t="n">
-        <v>0.126027</v>
+        <v>126.027</v>
       </c>
     </row>
     <row r="622">
@@ -12803,7 +12803,7 @@
         <v>62.09999999999999</v>
       </c>
       <c r="F622" t="n">
-        <v>0.1368684</v>
+        <v>136.8684</v>
       </c>
     </row>
     <row r="623">
@@ -12823,7 +12823,7 @@
         <v>71.39999999999999</v>
       </c>
       <c r="F623" t="n">
-        <v>0.159936</v>
+        <v>159.936</v>
       </c>
     </row>
     <row r="624">
@@ -12843,7 +12843,7 @@
         <v>90.66</v>
       </c>
       <c r="F624" t="n">
-        <v>0.2193972</v>
+        <v>219.3972</v>
       </c>
     </row>
     <row r="625">
@@ -12863,7 +12863,7 @@
         <v>107.685</v>
       </c>
       <c r="F625" t="n">
-        <v>0.2761043400000001</v>
+        <v>276.1043400000001</v>
       </c>
     </row>
     <row r="626">
@@ -12883,7 +12883,7 @@
         <v>108.87</v>
       </c>
       <c r="F626" t="n">
-        <v>0.25344936</v>
+        <v>253.44936</v>
       </c>
     </row>
     <row r="627">
@@ -12903,7 +12903,7 @@
         <v>77.94</v>
       </c>
       <c r="F627" t="n">
-        <v>0.17520912</v>
+        <v>175.20912</v>
       </c>
     </row>
     <row r="628">
@@ -12923,7 +12923,7 @@
         <v>56.85</v>
       </c>
       <c r="F628" t="n">
-        <v>0.1259796</v>
+        <v>125.9796</v>
       </c>
     </row>
     <row r="629">
@@ -12943,7 +12943,7 @@
         <v>98.205</v>
       </c>
       <c r="F629" t="n">
-        <v>0.23019252</v>
+        <v>230.19252</v>
       </c>
     </row>
     <row r="630">
@@ -12963,7 +12963,7 @@
         <v>78.69</v>
       </c>
       <c r="F630" t="n">
-        <v>0.18287556</v>
+        <v>182.87556</v>
       </c>
     </row>
     <row r="631">
@@ -12983,7 +12983,7 @@
         <v>80.83499999999999</v>
       </c>
       <c r="F631" t="n">
-        <v>0.18980058</v>
+        <v>189.80058</v>
       </c>
     </row>
     <row r="632">
@@ -13003,7 +13003,7 @@
         <v>43.02</v>
       </c>
       <c r="F632" t="n">
-        <v>0.09412775999999999</v>
+        <v>94.12775999999999</v>
       </c>
     </row>
     <row r="633">
@@ -13023,7 +13023,7 @@
         <v>33.225</v>
       </c>
       <c r="F633" t="n">
-        <v>0.0722976</v>
+        <v>72.2976</v>
       </c>
     </row>
     <row r="634">
@@ -13043,7 +13043,7 @@
         <v>39.81</v>
       </c>
       <c r="F634" t="n">
-        <v>0.08710428000000001</v>
+        <v>87.10428</v>
       </c>
     </row>
     <row r="635">
@@ -13063,7 +13063,7 @@
         <v>40.02</v>
       </c>
       <c r="F635" t="n">
-        <v>0.08756376</v>
+        <v>87.56376</v>
       </c>
     </row>
     <row r="636">
@@ -13083,7 +13083,7 @@
         <v>50.76</v>
       </c>
       <c r="F636" t="n">
-        <v>0.11187504</v>
+        <v>111.87504</v>
       </c>
     </row>
     <row r="637">
@@ -13103,7 +13103,7 @@
         <v>82.08</v>
       </c>
       <c r="F637" t="n">
-        <v>0.18779904</v>
+        <v>187.79904</v>
       </c>
     </row>
     <row r="638">
@@ -13123,7 +13123,7 @@
         <v>110.73</v>
       </c>
       <c r="F638" t="n">
-        <v>0.25645068</v>
+        <v>256.45068</v>
       </c>
     </row>
     <row r="639">
@@ -13143,7 +13143,7 @@
         <v>113.22</v>
       </c>
       <c r="F639" t="n">
-        <v>0.25270704</v>
+        <v>252.70704</v>
       </c>
     </row>
     <row r="640">
@@ -13163,7 +13163,7 @@
         <v>106.98</v>
       </c>
       <c r="F640" t="n">
-        <v>0.2550403199999999</v>
+        <v>255.0403199999999</v>
       </c>
     </row>
     <row r="641">
@@ -13183,7 +13183,7 @@
         <v>112.125</v>
       </c>
       <c r="F641" t="n">
-        <v>0.2507115</v>
+        <v>250.7115</v>
       </c>
     </row>
     <row r="642">
@@ -13203,7 +13203,7 @@
         <v>112.35</v>
       </c>
       <c r="F642" t="n">
-        <v>0.2503158</v>
+        <v>250.3158</v>
       </c>
     </row>
     <row r="643">
@@ -13223,7 +13223,7 @@
         <v>112.29</v>
       </c>
       <c r="F643" t="n">
-        <v>0.2515296</v>
+        <v>251.5296</v>
       </c>
     </row>
     <row r="644">
@@ -13243,7 +13243,7 @@
         <v>111.945</v>
       </c>
       <c r="F644" t="n">
-        <v>0.24986124</v>
+        <v>249.86124</v>
       </c>
     </row>
     <row r="645">
@@ -13263,7 +13263,7 @@
         <v>111.765</v>
       </c>
       <c r="F645" t="n">
-        <v>0.2503536</v>
+        <v>250.3536</v>
       </c>
     </row>
     <row r="646">
@@ -13283,7 +13283,7 @@
         <v>111.645</v>
       </c>
       <c r="F646" t="n">
-        <v>0.24919164</v>
+        <v>249.19164</v>
       </c>
     </row>
     <row r="647">
@@ -13303,7 +13303,7 @@
         <v>111.765</v>
       </c>
       <c r="F647" t="n">
-        <v>0.24901242</v>
+        <v>249.01242</v>
       </c>
     </row>
     <row r="648">
@@ -13323,7 +13323,7 @@
         <v>112.005</v>
       </c>
       <c r="F648" t="n">
-        <v>0.25044318</v>
+        <v>250.44318</v>
       </c>
     </row>
     <row r="649">
@@ -13343,7 +13343,7 @@
         <v>112.095</v>
       </c>
       <c r="F649" t="n">
-        <v>0.25019604</v>
+        <v>250.19604</v>
       </c>
     </row>
     <row r="650">
@@ -13363,7 +13363,7 @@
         <v>112.335</v>
       </c>
       <c r="F650" t="n">
-        <v>0.25073172</v>
+        <v>250.73172</v>
       </c>
     </row>
     <row r="651">
@@ -13383,7 +13383,7 @@
         <v>112.425</v>
       </c>
       <c r="F651" t="n">
-        <v>0.2509326</v>
+        <v>250.9326</v>
       </c>
     </row>
     <row r="652">
@@ -13403,7 +13403,7 @@
         <v>112.47</v>
       </c>
       <c r="F652" t="n">
-        <v>0.25148292</v>
+        <v>251.48292</v>
       </c>
     </row>
     <row r="653">
@@ -13423,7 +13423,7 @@
         <v>112.695</v>
       </c>
       <c r="F653" t="n">
-        <v>0.25153524</v>
+        <v>251.53524</v>
       </c>
     </row>
     <row r="654">
@@ -13443,7 +13443,7 @@
         <v>114.57</v>
       </c>
       <c r="F654" t="n">
-        <v>0.25984476</v>
+        <v>259.84476</v>
       </c>
     </row>
     <row r="655">
@@ -13463,7 +13463,7 @@
         <v>112.965</v>
       </c>
       <c r="F655" t="n">
-        <v>0.25213788</v>
+        <v>252.13788</v>
       </c>
     </row>
     <row r="656">
@@ -13483,7 +13483,7 @@
         <v>112.86</v>
       </c>
       <c r="F656" t="n">
-        <v>0.2528064</v>
+        <v>252.8064</v>
       </c>
     </row>
     <row r="657">
@@ -13503,7 +13503,7 @@
         <v>111.945</v>
       </c>
       <c r="F657" t="n">
-        <v>0.2552346</v>
+        <v>255.2346</v>
       </c>
     </row>
     <row r="658">
@@ -13523,7 +13523,7 @@
         <v>112.905</v>
       </c>
       <c r="F658" t="n">
-        <v>0.25200396</v>
+        <v>252.00396</v>
       </c>
     </row>
     <row r="659">
@@ -13543,7 +13543,7 @@
         <v>111.825</v>
       </c>
       <c r="F659" t="n">
-        <v>0.2558556</v>
+        <v>255.8556</v>
       </c>
     </row>
     <row r="660">
@@ -13563,7 +13563,7 @@
         <v>113.49</v>
       </c>
       <c r="F660" t="n">
-        <v>0.2542176</v>
+        <v>254.2176</v>
       </c>
     </row>
     <row r="661">
@@ -13583,7 +13583,7 @@
         <v>113.7</v>
       </c>
       <c r="F661" t="n">
-        <v>0.2542332</v>
+        <v>254.2332</v>
       </c>
     </row>
     <row r="662">
@@ -13603,7 +13603,7 @@
         <v>113.715</v>
       </c>
       <c r="F662" t="n">
-        <v>0.25426674</v>
+        <v>254.26674</v>
       </c>
     </row>
     <row r="663">
@@ -13623,7 +13623,7 @@
         <v>112.83</v>
       </c>
       <c r="F663" t="n">
-        <v>0.25138524</v>
+        <v>251.38524</v>
       </c>
     </row>
     <row r="664">
@@ -13643,7 +13643,7 @@
         <v>114.465</v>
       </c>
       <c r="F664" t="n">
-        <v>0.2564016</v>
+        <v>256.4016</v>
       </c>
     </row>
     <row r="665">
@@ -13663,7 +13663,7 @@
         <v>114.675</v>
       </c>
       <c r="F665" t="n">
-        <v>0.2564133</v>
+        <v>256.4133</v>
       </c>
     </row>
     <row r="666">
@@ -13683,7 +13683,7 @@
         <v>114.69</v>
       </c>
       <c r="F666" t="n">
-        <v>0.25644684</v>
+        <v>256.44684</v>
       </c>
     </row>
     <row r="667">
@@ -13703,7 +13703,7 @@
         <v>115.14</v>
       </c>
       <c r="F667" t="n">
-        <v>0.25837416</v>
+        <v>258.37416</v>
       </c>
     </row>
     <row r="668">
@@ -13723,7 +13723,7 @@
         <v>115.17</v>
       </c>
       <c r="F668" t="n">
-        <v>0.2579808000000001</v>
+        <v>257.9808000000001</v>
       </c>
     </row>
     <row r="669">
@@ -13743,7 +13743,7 @@
         <v>114.99</v>
       </c>
       <c r="F669" t="n">
-        <v>0.2575776</v>
+        <v>257.5776</v>
       </c>
     </row>
     <row r="670">
@@ -13763,7 +13763,7 @@
         <v>115.665</v>
       </c>
       <c r="F670" t="n">
-        <v>0.25770162</v>
+        <v>257.70162</v>
       </c>
     </row>
     <row r="671">
@@ -13783,7 +13783,7 @@
         <v>116.25</v>
       </c>
       <c r="F671" t="n">
-        <v>0.2604</v>
+        <v>260.4</v>
       </c>
     </row>
     <row r="672">
@@ -13803,7 +13803,7 @@
         <v>116.64</v>
       </c>
       <c r="F672" t="n">
-        <v>0.26034048</v>
+        <v>260.34048</v>
       </c>
     </row>
     <row r="673">
@@ -13823,7 +13823,7 @@
         <v>116.805</v>
       </c>
       <c r="F673" t="n">
-        <v>0.26070876</v>
+        <v>260.70876</v>
       </c>
     </row>
     <row r="674">
@@ -13843,7 +13843,7 @@
         <v>116.82</v>
       </c>
       <c r="F674" t="n">
-        <v>0.2616768</v>
+        <v>261.6768</v>
       </c>
     </row>
     <row r="675">
@@ -13863,7 +13863,7 @@
         <v>116.82</v>
       </c>
       <c r="F675" t="n">
-        <v>0.26120952</v>
+        <v>261.20952</v>
       </c>
     </row>
     <row r="676">
@@ -13883,7 +13883,7 @@
         <v>117.09</v>
       </c>
       <c r="F676" t="n">
-        <v>0.2622816</v>
+        <v>262.2816</v>
       </c>
     </row>
     <row r="677">
@@ -13903,7 +13903,7 @@
         <v>117.96</v>
       </c>
       <c r="F677" t="n">
-        <v>0.2642304</v>
+        <v>264.2304</v>
       </c>
     </row>
     <row r="678">
@@ -13923,7 +13923,7 @@
         <v>117.81</v>
       </c>
       <c r="F678" t="n">
-        <v>0.26342316</v>
+        <v>263.42316</v>
       </c>
     </row>
     <row r="679">
@@ -13943,7 +13943,7 @@
         <v>118.32</v>
       </c>
       <c r="F679" t="n">
-        <v>0.26551008</v>
+        <v>265.51008</v>
       </c>
     </row>
     <row r="680">
@@ -13963,7 +13963,7 @@
         <v>118.485</v>
       </c>
       <c r="F680" t="n">
-        <v>0.2654064</v>
+        <v>265.4064</v>
       </c>
     </row>
     <row r="681">
@@ -13983,7 +13983,7 @@
         <v>118.605</v>
       </c>
       <c r="F681" t="n">
-        <v>0.26614962</v>
+        <v>266.14962</v>
       </c>
     </row>
     <row r="682">
@@ -14003,7 +14003,7 @@
         <v>118.92</v>
       </c>
       <c r="F682" t="n">
-        <v>0.2654294400000001</v>
+        <v>265.4294400000001</v>
       </c>
     </row>
     <row r="683">
@@ -14023,7 +14023,7 @@
         <v>119.445</v>
       </c>
       <c r="F683" t="n">
-        <v>0.2675568</v>
+        <v>267.5568</v>
       </c>
     </row>
     <row r="684">
@@ -14043,7 +14043,7 @@
         <v>119.01</v>
       </c>
       <c r="F684" t="n">
-        <v>0.26610636</v>
+        <v>266.10636</v>
       </c>
     </row>
     <row r="685">
@@ -14063,7 +14063,7 @@
         <v>118.77</v>
       </c>
       <c r="F685" t="n">
-        <v>0.2660448</v>
+        <v>266.0448</v>
       </c>
     </row>
     <row r="686">
@@ -14083,7 +14083,7 @@
         <v>118.65</v>
       </c>
       <c r="F686" t="n">
-        <v>0.265776</v>
+        <v>265.776</v>
       </c>
     </row>
     <row r="687">
@@ -14103,7 +14103,7 @@
         <v>119.16</v>
       </c>
       <c r="F687" t="n">
-        <v>0.2669184</v>
+        <v>266.9184</v>
       </c>
     </row>
     <row r="688">
@@ -14123,7 +14123,7 @@
         <v>119.055</v>
       </c>
       <c r="F688" t="n">
-        <v>0.26763564</v>
+        <v>267.63564</v>
       </c>
     </row>
     <row r="689">
@@ -14143,7 +14143,7 @@
         <v>117.735</v>
       </c>
       <c r="F689" t="n">
-        <v>0.26419734</v>
+        <v>264.19734</v>
       </c>
     </row>
     <row r="690">
@@ -14163,7 +14163,7 @@
         <v>116.55</v>
       </c>
       <c r="F690" t="n">
-        <v>0.2601396</v>
+        <v>260.1396</v>
       </c>
     </row>
     <row r="691">
@@ -14183,7 +14183,7 @@
         <v>116.73</v>
       </c>
       <c r="F691" t="n">
-        <v>0.26007444</v>
+        <v>260.07444</v>
       </c>
     </row>
     <row r="692">
@@ -14203,7 +14203,7 @@
         <v>116.025</v>
       </c>
       <c r="F692" t="n">
-        <v>0.2603601</v>
+        <v>260.3601</v>
       </c>
     </row>
     <row r="693">
@@ -14223,7 +14223,7 @@
         <v>115.2</v>
       </c>
       <c r="F693" t="n">
-        <v>0.2575872</v>
+        <v>257.5872</v>
       </c>
     </row>
     <row r="694">
@@ -14243,7 +14243,7 @@
         <v>115.725</v>
       </c>
       <c r="F694" t="n">
-        <v>0.2596869000000001</v>
+        <v>259.6869000000001</v>
       </c>
     </row>
     <row r="695">
@@ -14263,7 +14263,7 @@
         <v>116.175</v>
       </c>
       <c r="F695" t="n">
-        <v>0.260232</v>
+        <v>260.232</v>
       </c>
     </row>
     <row r="696">
@@ -14283,7 +14283,7 @@
         <v>110.19</v>
       </c>
       <c r="F696" t="n">
-        <v>0.24506256</v>
+        <v>245.06256</v>
       </c>
     </row>
     <row r="697">
@@ -14303,7 +14303,7 @@
         <v>114.24</v>
       </c>
       <c r="F697" t="n">
-        <v>0.25452672</v>
+        <v>254.52672</v>
       </c>
     </row>
     <row r="698">
@@ -14323,7 +14323,7 @@
         <v>116.475</v>
       </c>
       <c r="F698" t="n">
-        <v>0.2599722</v>
+        <v>259.9722</v>
       </c>
     </row>
     <row r="699">
@@ -14343,7 +14343,7 @@
         <v>115.71</v>
       </c>
       <c r="F699" t="n">
-        <v>0.25826472</v>
+        <v>258.26472</v>
       </c>
     </row>
     <row r="700">
@@ -14363,7 +14363,7 @@
         <v>114.36</v>
       </c>
       <c r="F700" t="n">
-        <v>0.25708128</v>
+        <v>257.08128</v>
       </c>
     </row>
     <row r="701">
@@ -14383,7 +14383,7 @@
         <v>112.74</v>
       </c>
       <c r="F701" t="n">
-        <v>0.25163568</v>
+        <v>251.63568</v>
       </c>
     </row>
     <row r="702">
@@ -14403,7 +14403,7 @@
         <v>116.055</v>
       </c>
       <c r="F702" t="n">
-        <v>0.25949898</v>
+        <v>259.49898</v>
       </c>
     </row>
     <row r="703">
@@ -14423,7 +14423,7 @@
         <v>116.115</v>
       </c>
       <c r="F703" t="n">
-        <v>0.2600976</v>
+        <v>260.0976</v>
       </c>
     </row>
     <row r="704">
@@ -14443,7 +14443,7 @@
         <v>114.27</v>
       </c>
       <c r="F704" t="n">
-        <v>0.25550772</v>
+        <v>255.50772</v>
       </c>
     </row>
     <row r="705">
@@ -14463,7 +14463,7 @@
         <v>112.38</v>
       </c>
       <c r="F705" t="n">
-        <v>0.25038264</v>
+        <v>250.38264</v>
       </c>
     </row>
     <row r="706">
@@ -14483,7 +14483,7 @@
         <v>111.9</v>
       </c>
       <c r="F706" t="n">
-        <v>0.2493132</v>
+        <v>249.3132</v>
       </c>
     </row>
     <row r="707">
@@ -14503,7 +14503,7 @@
         <v>115.71</v>
       </c>
       <c r="F707" t="n">
-        <v>0.25826472</v>
+        <v>258.26472</v>
       </c>
     </row>
     <row r="708">
@@ -14523,7 +14523,7 @@
         <v>117.345</v>
       </c>
       <c r="F708" t="n">
-        <v>0.26191404</v>
+        <v>261.91404</v>
       </c>
     </row>
     <row r="709">
@@ -14543,7 +14543,7 @@
         <v>117.285</v>
       </c>
       <c r="F709" t="n">
-        <v>0.26131098</v>
+        <v>261.31098</v>
       </c>
     </row>
     <row r="710">
@@ -14563,7 +14563,7 @@
         <v>116.205</v>
       </c>
       <c r="F710" t="n">
-        <v>0.25890474</v>
+        <v>258.90474</v>
       </c>
     </row>
     <row r="711">
@@ -14583,7 +14583,7 @@
         <v>115.38</v>
       </c>
       <c r="F711" t="n">
-        <v>0.25706664</v>
+        <v>257.06664</v>
       </c>
     </row>
     <row r="712">
@@ -14603,7 +14603,7 @@
         <v>115.275</v>
       </c>
       <c r="F712" t="n">
-        <v>0.2572938</v>
+        <v>257.2938</v>
       </c>
     </row>
     <row r="713">
@@ -14623,7 +14623,7 @@
         <v>114.96</v>
       </c>
       <c r="F713" t="n">
-        <v>0.25659072</v>
+        <v>256.59072</v>
       </c>
     </row>
     <row r="714">
@@ -14643,7 +14643,7 @@
         <v>115.29</v>
       </c>
       <c r="F714" t="n">
-        <v>0.2582496</v>
+        <v>258.2496</v>
       </c>
     </row>
     <row r="715">
@@ -14663,7 +14663,7 @@
         <v>116.055</v>
       </c>
       <c r="F715" t="n">
-        <v>0.2599632</v>
+        <v>259.9632</v>
       </c>
     </row>
     <row r="716">
@@ -14683,7 +14683,7 @@
         <v>116.91</v>
       </c>
       <c r="F716" t="n">
-        <v>0.26094312</v>
+        <v>260.94312</v>
       </c>
     </row>
     <row r="717">
@@ -14703,7 +14703,7 @@
         <v>116.85</v>
       </c>
       <c r="F717" t="n">
-        <v>0.2603418</v>
+        <v>260.3418</v>
       </c>
     </row>
     <row r="718">
@@ -14723,7 +14723,7 @@
         <v>116.535</v>
       </c>
       <c r="F718" t="n">
-        <v>0.2605722600000001</v>
+        <v>260.5722600000001</v>
       </c>
     </row>
     <row r="719">
@@ -14743,7 +14743,7 @@
         <v>116.805</v>
       </c>
       <c r="F719" t="n">
-        <v>0.26491374</v>
+        <v>264.91374</v>
       </c>
     </row>
     <row r="720">
@@ -14763,7 +14763,7 @@
         <v>113.91</v>
       </c>
       <c r="F720" t="n">
-        <v>0.25561404</v>
+        <v>255.61404</v>
       </c>
     </row>
     <row r="721">
@@ -14783,7 +14783,7 @@
         <v>114.315</v>
       </c>
       <c r="F721" t="n">
-        <v>0.25515108</v>
+        <v>255.15108</v>
       </c>
     </row>
     <row r="722">
@@ -14803,7 +14803,7 @@
         <v>114.465</v>
       </c>
       <c r="F722" t="n">
-        <v>0.2564016</v>
+        <v>256.4016</v>
       </c>
     </row>
     <row r="723">
@@ -14823,7 +14823,7 @@
         <v>115.005</v>
       </c>
       <c r="F723" t="n">
-        <v>0.25715118</v>
+        <v>257.15118</v>
       </c>
     </row>
     <row r="724">
@@ -14843,7 +14843,7 @@
         <v>115.5</v>
       </c>
       <c r="F724" t="n">
-        <v>0.258258</v>
+        <v>258.258</v>
       </c>
     </row>
     <row r="725">
@@ -14863,7 +14863,7 @@
         <v>116.52</v>
       </c>
       <c r="F725" t="n">
-        <v>0.26007264</v>
+        <v>260.07264</v>
       </c>
     </row>
     <row r="726">
@@ -14883,7 +14883,7 @@
         <v>116.85</v>
       </c>
       <c r="F726" t="n">
-        <v>0.261744</v>
+        <v>261.744</v>
       </c>
     </row>
     <row r="727">
@@ -14903,7 +14903,7 @@
         <v>117.54</v>
       </c>
       <c r="F727" t="n">
-        <v>0.2632896</v>
+        <v>263.2896</v>
       </c>
     </row>
     <row r="728">
@@ -14923,7 +14923,7 @@
         <v>117.645</v>
       </c>
       <c r="F728" t="n">
-        <v>0.2635248</v>
+        <v>263.5248</v>
       </c>
     </row>
     <row r="729">
@@ -14943,7 +14943,7 @@
         <v>117.48</v>
       </c>
       <c r="F729" t="n">
-        <v>0.2631552</v>
+        <v>263.1552</v>
       </c>
     </row>
     <row r="730">
@@ -14963,7 +14963,7 @@
         <v>117.21</v>
       </c>
       <c r="F730" t="n">
-        <v>0.26301924</v>
+        <v>263.01924</v>
       </c>
     </row>
     <row r="731">
@@ -14983,7 +14983,7 @@
         <v>117.12</v>
       </c>
       <c r="F731" t="n">
-        <v>0.26141184</v>
+        <v>261.41184</v>
       </c>
     </row>
     <row r="732">
@@ -15003,7 +15003,7 @@
         <v>116.94</v>
       </c>
       <c r="F732" t="n">
-        <v>0.26101008</v>
+        <v>261.01008</v>
       </c>
     </row>
     <row r="733">
@@ -15023,7 +15023,7 @@
         <v>116.82</v>
       </c>
       <c r="F733" t="n">
-        <v>0.26074224</v>
+        <v>260.74224</v>
       </c>
     </row>
     <row r="734">
@@ -15043,7 +15043,7 @@
         <v>116.37</v>
       </c>
       <c r="F734" t="n">
-        <v>0.25973784</v>
+        <v>259.73784</v>
       </c>
     </row>
     <row r="735">
@@ -15063,7 +15063,7 @@
         <v>116.415</v>
       </c>
       <c r="F735" t="n">
-        <v>0.26030394</v>
+        <v>260.30394</v>
       </c>
     </row>
     <row r="736">
@@ -15083,7 +15083,7 @@
         <v>116.115</v>
       </c>
       <c r="F736" t="n">
-        <v>0.25963314</v>
+        <v>259.63314</v>
       </c>
     </row>
     <row r="737">
@@ -15103,7 +15103,7 @@
         <v>116.16</v>
       </c>
       <c r="F737" t="n">
-        <v>0.25973376</v>
+        <v>259.73376</v>
       </c>
     </row>
     <row r="738">
@@ -15123,7 +15123,7 @@
         <v>116.145</v>
       </c>
       <c r="F738" t="n">
-        <v>0.25923564</v>
+        <v>259.23564</v>
       </c>
     </row>
     <row r="739">
@@ -15143,7 +15143,7 @@
         <v>116.04</v>
       </c>
       <c r="F739" t="n">
-        <v>0.25900128</v>
+        <v>259.00128</v>
       </c>
     </row>
     <row r="740">
@@ -15163,7 +15163,7 @@
         <v>116.085</v>
       </c>
       <c r="F740" t="n">
-        <v>0.25956606</v>
+        <v>259.56606</v>
       </c>
     </row>
     <row r="741">
@@ -15183,7 +15183,7 @@
         <v>116.01</v>
       </c>
       <c r="F741" t="n">
-        <v>0.2598624</v>
+        <v>259.8624</v>
       </c>
     </row>
     <row r="742">
@@ -15203,7 +15203,7 @@
         <v>115.44</v>
       </c>
       <c r="F742" t="n">
-        <v>0.2585856</v>
+        <v>258.5856</v>
       </c>
     </row>
     <row r="743">
@@ -15223,7 +15223,7 @@
         <v>115.095</v>
       </c>
       <c r="F743" t="n">
-        <v>0.2578128000000001</v>
+        <v>257.8128000000001</v>
       </c>
     </row>
     <row r="744">
@@ -15243,7 +15243,7 @@
         <v>115.17</v>
       </c>
       <c r="F744" t="n">
-        <v>0.25752012</v>
+        <v>257.52012</v>
       </c>
     </row>
     <row r="745">
@@ -15263,7 +15263,7 @@
         <v>115.08</v>
       </c>
       <c r="F745" t="n">
-        <v>0.25685856</v>
+        <v>256.85856</v>
       </c>
     </row>
     <row r="746">
@@ -15283,7 +15283,7 @@
         <v>115.26</v>
       </c>
       <c r="F746" t="n">
-        <v>0.25772136</v>
+        <v>257.72136</v>
       </c>
     </row>
     <row r="747">
@@ -15303,7 +15303,7 @@
         <v>114.735</v>
       </c>
       <c r="F747" t="n">
-        <v>0.2570064</v>
+        <v>257.0064</v>
       </c>
     </row>
     <row r="748">
@@ -15323,7 +15323,7 @@
         <v>114.015</v>
       </c>
       <c r="F748" t="n">
-        <v>0.25584966</v>
+        <v>255.84966</v>
       </c>
     </row>
     <row r="749">
@@ -15343,7 +15343,7 @@
         <v>113.55</v>
       </c>
       <c r="F749" t="n">
-        <v>0.2529894</v>
+        <v>252.9894</v>
       </c>
     </row>
     <row r="750">
@@ -15363,7 +15363,7 @@
         <v>113.4</v>
       </c>
       <c r="F750" t="n">
-        <v>0.2535624</v>
+        <v>253.5624</v>
       </c>
     </row>
     <row r="751">
@@ -15383,7 +15383,7 @@
         <v>112.725</v>
       </c>
       <c r="F751" t="n">
-        <v>0.2520531</v>
+        <v>252.0531</v>
       </c>
     </row>
     <row r="752">
@@ -15403,7 +15403,7 @@
         <v>112.02</v>
       </c>
       <c r="F752" t="n">
-        <v>0.24958056</v>
+        <v>249.58056</v>
       </c>
     </row>
     <row r="753">
@@ -15423,7 +15423,7 @@
         <v>111.735</v>
       </c>
       <c r="F753" t="n">
-        <v>0.24939252</v>
+        <v>249.39252</v>
       </c>
     </row>
     <row r="754">
@@ -15443,7 +15443,7 @@
         <v>112.14</v>
       </c>
       <c r="F754" t="n">
-        <v>0.25074504</v>
+        <v>250.74504</v>
       </c>
     </row>
     <row r="755">
@@ -15463,7 +15463,7 @@
         <v>112.185</v>
       </c>
       <c r="F755" t="n">
-        <v>0.24994818</v>
+        <v>249.94818</v>
       </c>
     </row>
     <row r="756">
@@ -15483,7 +15483,7 @@
         <v>112.5</v>
       </c>
       <c r="F756" t="n">
-        <v>0.25155</v>
+        <v>251.55</v>
       </c>
     </row>
     <row r="757">
@@ -15503,7 +15503,7 @@
         <v>112.77</v>
       </c>
       <c r="F757" t="n">
-        <v>0.25215372</v>
+        <v>252.15372</v>
       </c>
     </row>
     <row r="758">
@@ -15523,7 +15523,7 @@
         <v>112.905</v>
       </c>
       <c r="F758" t="n">
-        <v>0.25200396</v>
+        <v>252.00396</v>
       </c>
     </row>
     <row r="759">
@@ -15543,7 +15543,7 @@
         <v>113.055</v>
       </c>
       <c r="F759" t="n">
-        <v>0.25233876</v>
+        <v>252.33876</v>
       </c>
     </row>
     <row r="760">
@@ -15563,7 +15563,7 @@
         <v>112.695</v>
       </c>
       <c r="F760" t="n">
-        <v>0.25198602</v>
+        <v>251.98602</v>
       </c>
     </row>
     <row r="761">
@@ -15583,7 +15583,7 @@
         <v>112.905</v>
       </c>
       <c r="F761" t="n">
-        <v>0.25200396</v>
+        <v>252.00396</v>
       </c>
     </row>
     <row r="762">
@@ -15603,7 +15603,7 @@
         <v>112.98</v>
       </c>
       <c r="F762" t="n">
-        <v>0.2530752</v>
+        <v>253.0752</v>
       </c>
     </row>
     <row r="763">
@@ -15623,7 +15623,7 @@
         <v>112.77</v>
       </c>
       <c r="F763" t="n">
-        <v>0.25170264</v>
+        <v>251.70264</v>
       </c>
     </row>
     <row r="764">
@@ -15643,7 +15643,7 @@
         <v>113.19</v>
       </c>
       <c r="F764" t="n">
-        <v>0.25218732</v>
+        <v>252.18732</v>
       </c>
     </row>
     <row r="765">
@@ -15663,7 +15663,7 @@
         <v>113.475</v>
       </c>
       <c r="F765" t="n">
-        <v>0.2528223</v>
+        <v>252.8223</v>
       </c>
     </row>
     <row r="766">
@@ -15683,7 +15683,7 @@
         <v>113.415</v>
       </c>
       <c r="F766" t="n">
-        <v>0.25223496</v>
+        <v>252.23496</v>
       </c>
     </row>
     <row r="767">
@@ -15703,7 +15703,7 @@
         <v>113.055</v>
       </c>
       <c r="F767" t="n">
-        <v>0.25233876</v>
+        <v>252.33876</v>
       </c>
     </row>
     <row r="768">
@@ -15723,7 +15723,7 @@
         <v>112.32</v>
       </c>
       <c r="F768" t="n">
-        <v>0.25069824</v>
+        <v>250.69824</v>
       </c>
     </row>
     <row r="769">
@@ -15743,7 +15743,7 @@
         <v>111.375</v>
       </c>
       <c r="F769" t="n">
-        <v>0.24948</v>
+        <v>249.48</v>
       </c>
     </row>
     <row r="770">
@@ -15763,7 +15763,7 @@
         <v>111.105</v>
       </c>
       <c r="F770" t="n">
-        <v>0.2466531</v>
+        <v>246.6531</v>
       </c>
     </row>
     <row r="771">
@@ -15783,7 +15783,7 @@
         <v>110.79</v>
       </c>
       <c r="F771" t="n">
-        <v>0.24728328</v>
+        <v>247.28328</v>
       </c>
     </row>
     <row r="772">
@@ -15803,7 +15803,7 @@
         <v>110.94</v>
       </c>
       <c r="F772" t="n">
-        <v>0.24806184</v>
+        <v>248.06184</v>
       </c>
     </row>
     <row r="773">
@@ -15823,7 +15823,7 @@
         <v>111.54</v>
       </c>
       <c r="F773" t="n">
-        <v>0.24806496</v>
+        <v>248.06496</v>
       </c>
     </row>
     <row r="774">
@@ -15843,7 +15843,7 @@
         <v>111.315</v>
       </c>
       <c r="F774" t="n">
-        <v>0.24890034</v>
+        <v>248.90034</v>
       </c>
     </row>
     <row r="775">
@@ -15863,7 +15863,7 @@
         <v>110.805</v>
       </c>
       <c r="F775" t="n">
-        <v>0.2482032</v>
+        <v>248.2032</v>
       </c>
     </row>
     <row r="776">
@@ -15883,7 +15883,7 @@
         <v>110.685</v>
       </c>
       <c r="F776" t="n">
-        <v>0.24704892</v>
+        <v>247.04892</v>
       </c>
     </row>
     <row r="777">
@@ -15903,7 +15903,7 @@
         <v>110.415</v>
       </c>
       <c r="F777" t="n">
-        <v>0.2473296</v>
+        <v>247.3296</v>
       </c>
     </row>
     <row r="778">
@@ -15923,7 +15923,7 @@
         <v>110.43</v>
       </c>
       <c r="F778" t="n">
-        <v>0.2473632</v>
+        <v>247.3632</v>
       </c>
     </row>
     <row r="779">
@@ -15943,7 +15943,7 @@
         <v>110.535</v>
       </c>
       <c r="F779" t="n">
-        <v>0.24627198</v>
+        <v>246.27198</v>
       </c>
     </row>
     <row r="780">
@@ -15963,7 +15963,7 @@
         <v>110.31</v>
       </c>
       <c r="F780" t="n">
-        <v>0.24621192</v>
+        <v>246.21192</v>
       </c>
     </row>
     <row r="781">
@@ -15983,7 +15983,7 @@
         <v>110.265</v>
       </c>
       <c r="F781" t="n">
-        <v>0.24655254</v>
+        <v>246.55254</v>
       </c>
     </row>
     <row r="782">
@@ -16003,7 +16003,7 @@
         <v>110.085</v>
       </c>
       <c r="F782" t="n">
-        <v>0.24570972</v>
+        <v>245.70972</v>
       </c>
     </row>
     <row r="783">
@@ -16023,7 +16023,7 @@
         <v>109.785</v>
       </c>
       <c r="F783" t="n">
-        <v>0.2459184</v>
+        <v>245.9184</v>
       </c>
     </row>
     <row r="784">
@@ -16043,7 +16043,7 @@
         <v>111.27</v>
       </c>
       <c r="F784" t="n">
-        <v>0.2848512</v>
+        <v>284.8512</v>
       </c>
     </row>
     <row r="785">
@@ -16063,7 +16063,7 @@
         <v>109.08</v>
       </c>
       <c r="F785" t="n">
-        <v>0.26702784</v>
+        <v>267.02784</v>
       </c>
     </row>
     <row r="786">
@@ -16083,7 +16083,7 @@
         <v>108.855</v>
       </c>
       <c r="F786" t="n">
-        <v>0.2747500199999999</v>
+        <v>274.7500199999999</v>
       </c>
     </row>
     <row r="787">
@@ -16103,7 +16103,7 @@
         <v>108.495</v>
       </c>
       <c r="F787" t="n">
-        <v>0.30205008</v>
+        <v>302.05008</v>
       </c>
     </row>
     <row r="788">
@@ -16123,7 +16123,7 @@
         <v>108.27</v>
       </c>
       <c r="F788" t="n">
-        <v>0.27240732</v>
+        <v>272.40732</v>
       </c>
     </row>
     <row r="789">
@@ -16143,7 +16143,7 @@
         <v>107.91</v>
       </c>
       <c r="F789" t="n">
-        <v>0.28531404</v>
+        <v>285.31404</v>
       </c>
     </row>
     <row r="790">
@@ -16163,7 +16163,7 @@
         <v>107.835</v>
       </c>
       <c r="F790" t="n">
-        <v>0.28554708</v>
+        <v>285.54708</v>
       </c>
     </row>
     <row r="791">
@@ -16183,7 +16183,7 @@
         <v>107.52</v>
       </c>
       <c r="F791" t="n">
-        <v>0.27396096</v>
+        <v>273.96096</v>
       </c>
     </row>
     <row r="792">
@@ -16203,7 +16203,7 @@
         <v>107.49</v>
       </c>
       <c r="F792" t="n">
-        <v>0.28033392</v>
+        <v>280.33392</v>
       </c>
     </row>
     <row r="793">
@@ -16223,7 +16223,7 @@
         <v>107.28</v>
       </c>
       <c r="F793" t="n">
-        <v>0.30381696</v>
+        <v>303.8169600000001</v>
       </c>
     </row>
     <row r="794">
@@ -16243,7 +16243,7 @@
         <v>107.235</v>
       </c>
       <c r="F794" t="n">
-        <v>0.26508492</v>
+        <v>265.08492</v>
       </c>
     </row>
     <row r="795">
@@ -16263,7 +16263,7 @@
         <v>106.92</v>
       </c>
       <c r="F795" t="n">
-        <v>0.26558928</v>
+        <v>265.58928</v>
       </c>
     </row>
     <row r="796">
@@ -16283,7 +16283,7 @@
         <v>106.425</v>
       </c>
       <c r="F796" t="n">
-        <v>0.2920302</v>
+        <v>292.0302</v>
       </c>
     </row>
     <row r="797">
@@ -16303,7 +16303,7 @@
         <v>106.38</v>
       </c>
       <c r="F797" t="n">
-        <v>0.2744604</v>
+        <v>274.4604</v>
       </c>
     </row>
     <row r="798">
@@ -16323,7 +16323,7 @@
         <v>106.02</v>
       </c>
       <c r="F798" t="n">
-        <v>0.28158912</v>
+        <v>281.58912</v>
       </c>
     </row>
     <row r="799">
@@ -16343,7 +16343,7 @@
         <v>105.615</v>
       </c>
       <c r="F799" t="n">
-        <v>0.27079686</v>
+        <v>270.79686</v>
       </c>
     </row>
     <row r="800">
@@ -16363,7 +16363,7 @@
         <v>105.18</v>
       </c>
       <c r="F800" t="n">
-        <v>0.26884008</v>
+        <v>268.84008</v>
       </c>
     </row>
     <row r="801">
@@ -16383,7 +16383,7 @@
         <v>104.985</v>
       </c>
       <c r="F801" t="n">
-        <v>0.2771604</v>
+        <v>277.1604</v>
       </c>
     </row>
     <row r="802">
@@ -16403,7 +16403,7 @@
         <v>104.805</v>
       </c>
       <c r="F802" t="n">
-        <v>0.27123534</v>
+        <v>271.23534</v>
       </c>
     </row>
     <row r="803">
@@ -16423,7 +16423,7 @@
         <v>104.67</v>
       </c>
       <c r="F803" t="n">
-        <v>0.27549144</v>
+        <v>275.49144</v>
       </c>
     </row>
     <row r="804">
@@ -16443,7 +16443,7 @@
         <v>104.415</v>
       </c>
       <c r="F804" t="n">
-        <v>0.24266046</v>
+        <v>242.66046</v>
       </c>
     </row>
     <row r="805">
@@ -16463,7 +16463,7 @@
         <v>103.89</v>
       </c>
       <c r="F805" t="n">
-        <v>0.25640052</v>
+        <v>256.40052</v>
       </c>
     </row>
     <row r="806">
@@ -16483,7 +16483,7 @@
         <v>103.815</v>
       </c>
       <c r="F806" t="n">
-        <v>0.2616138</v>
+        <v>261.6138</v>
       </c>
     </row>
     <row r="807">
@@ -16503,7 +16503,7 @@
         <v>103.53</v>
       </c>
       <c r="F807" t="n">
-        <v>0.25551204</v>
+        <v>255.51204</v>
       </c>
     </row>
     <row r="808">
@@ -16523,7 +16523,7 @@
         <v>103.29</v>
       </c>
       <c r="F808" t="n">
-        <v>0.26524872</v>
+        <v>265.24872</v>
       </c>
     </row>
     <row r="809">
@@ -16543,7 +16543,7 @@
         <v>102.885</v>
       </c>
       <c r="F809" t="n">
-        <v>0.26708946</v>
+        <v>267.08946</v>
       </c>
     </row>
     <row r="810">
@@ -16563,7 +16563,7 @@
         <v>102.705</v>
       </c>
       <c r="F810" t="n">
-        <v>0.25922742</v>
+        <v>259.22742</v>
       </c>
     </row>
     <row r="811">
@@ -16583,7 +16583,7 @@
         <v>102.48</v>
       </c>
       <c r="F811" t="n">
-        <v>0.25046112</v>
+        <v>250.46112</v>
       </c>
     </row>
     <row r="812">
@@ -16603,7 +16603,7 @@
         <v>102.225</v>
       </c>
       <c r="F812" t="n">
-        <v>0.269874</v>
+        <v>269.874</v>
       </c>
     </row>
     <row r="813">
@@ -16623,7 +16623,7 @@
         <v>101.82</v>
       </c>
       <c r="F813" t="n">
-        <v>0.2423316</v>
+        <v>242.3316</v>
       </c>
     </row>
     <row r="814">
@@ -16643,7 +16643,7 @@
         <v>101.565</v>
       </c>
       <c r="F814" t="n">
-        <v>0.24497478</v>
+        <v>244.97478</v>
       </c>
     </row>
     <row r="815">
@@ -16663,7 +16663,7 @@
         <v>101.16</v>
       </c>
       <c r="F815" t="n">
-        <v>0.2549232</v>
+        <v>254.9232</v>
       </c>
     </row>
     <row r="816">
@@ -16683,7 +16683,7 @@
         <v>101.025</v>
       </c>
       <c r="F816" t="n">
-        <v>0.2392272</v>
+        <v>239.2272</v>
       </c>
     </row>
     <row r="817">
@@ -16703,7 +16703,7 @@
         <v>100.395</v>
       </c>
       <c r="F817" t="n">
-        <v>0.2469717</v>
+        <v>246.9717</v>
       </c>
     </row>
     <row r="818">
@@ -16723,7 +16723,7 @@
         <v>100.215</v>
       </c>
       <c r="F818" t="n">
-        <v>0.25174008</v>
+        <v>251.74008</v>
       </c>
     </row>
     <row r="819">
@@ -16743,7 +16743,7 @@
         <v>99.92999999999999</v>
       </c>
       <c r="F819" t="n">
-        <v>0.24862584</v>
+        <v>248.62584</v>
       </c>
     </row>
     <row r="820">
@@ -16763,7 +16763,7 @@
         <v>99.63</v>
       </c>
       <c r="F820" t="n">
-        <v>0.25545132</v>
+        <v>255.45132</v>
       </c>
     </row>
     <row r="821">
@@ -16783,7 +16783,7 @@
         <v>99.27</v>
       </c>
       <c r="F821" t="n">
-        <v>0.24063048</v>
+        <v>240.63048</v>
       </c>
     </row>
     <row r="822">
@@ -16803,7 +16803,7 @@
         <v>98.94</v>
       </c>
       <c r="F822" t="n">
-        <v>0.24220512</v>
+        <v>242.20512</v>
       </c>
     </row>
     <row r="823">
@@ -16823,7 +16823,7 @@
         <v>98.45999999999999</v>
       </c>
       <c r="F823" t="n">
-        <v>0.25757136</v>
+        <v>257.57136</v>
       </c>
     </row>
     <row r="824">
@@ -16843,7 +16843,7 @@
         <v>98.31</v>
       </c>
       <c r="F824" t="n">
-        <v>0.25285332</v>
+        <v>252.85332</v>
       </c>
     </row>
     <row r="825">
@@ -16863,7 +16863,7 @@
         <v>98.09999999999999</v>
       </c>
       <c r="F825" t="n">
-        <v>0.2342628</v>
+        <v>234.2628</v>
       </c>
     </row>
     <row r="826">
@@ -16883,7 +16883,7 @@
         <v>97.64999999999999</v>
       </c>
       <c r="F826" t="n">
-        <v>0.2410002</v>
+        <v>241.0002</v>
       </c>
     </row>
     <row r="827">
@@ -16903,7 +16903,7 @@
         <v>97.425</v>
       </c>
       <c r="F827" t="n">
-        <v>0.2365479</v>
+        <v>236.5479</v>
       </c>
     </row>
     <row r="828">
@@ -16923,7 +16923,7 @@
         <v>97.05</v>
       </c>
       <c r="F828" t="n">
-        <v>0.2500008</v>
+        <v>250.0008</v>
       </c>
     </row>
     <row r="829">
@@ -16943,7 +16943,7 @@
         <v>96.705</v>
       </c>
       <c r="F829" t="n">
-        <v>0.2301579</v>
+        <v>230.1579</v>
       </c>
     </row>
     <row r="830">
@@ -16963,7 +16963,7 @@
         <v>96.45</v>
       </c>
       <c r="F830" t="n">
-        <v>0.2341806</v>
+        <v>234.1806</v>
       </c>
     </row>
     <row r="831">
@@ -16983,7 +16983,7 @@
         <v>95.97</v>
       </c>
       <c r="F831" t="n">
-        <v>0.23647008</v>
+        <v>236.47008</v>
       </c>
     </row>
     <row r="832">
@@ -17003,7 +17003,7 @@
         <v>95.655</v>
       </c>
       <c r="F832" t="n">
-        <v>0.23378082</v>
+        <v>233.78082</v>
       </c>
     </row>
     <row r="833">
@@ -17023,7 +17023,7 @@
         <v>95.145</v>
       </c>
       <c r="F833" t="n">
-        <v>0.23253438</v>
+        <v>232.53438</v>
       </c>
     </row>
     <row r="834">
@@ -17043,7 +17043,7 @@
         <v>94.86</v>
       </c>
       <c r="F834" t="n">
-        <v>0.22235184</v>
+        <v>222.35184</v>
       </c>
     </row>
     <row r="835">
@@ -17063,7 +17063,7 @@
         <v>94.61999999999999</v>
       </c>
       <c r="F835" t="n">
-        <v>0.22406016</v>
+        <v>224.06016</v>
       </c>
     </row>
     <row r="836">
@@ -17083,7 +17083,7 @@
         <v>94.11</v>
       </c>
       <c r="F836" t="n">
-        <v>0.23075772</v>
+        <v>230.75772</v>
       </c>
     </row>
     <row r="837">
@@ -17103,7 +17103,7 @@
         <v>93.81</v>
       </c>
       <c r="F837" t="n">
-        <v>0.2195154</v>
+        <v>219.5154</v>
       </c>
     </row>
     <row r="838">
@@ -17123,7 +17123,7 @@
         <v>93.53999999999999</v>
       </c>
       <c r="F838" t="n">
-        <v>0.22150272</v>
+        <v>221.50272</v>
       </c>
     </row>
     <row r="839">
@@ -17143,7 +17143,7 @@
         <v>93.14999999999999</v>
       </c>
       <c r="F839" t="n">
-        <v>0.221697</v>
+        <v>221.697</v>
       </c>
     </row>
     <row r="840">
@@ -17163,7 +17163,7 @@
         <v>92.72999999999999</v>
       </c>
       <c r="F840" t="n">
-        <v>0.22663212</v>
+        <v>226.63212</v>
       </c>
     </row>
     <row r="841">
@@ -17183,7 +17183,7 @@
         <v>92.325</v>
       </c>
       <c r="F841" t="n">
-        <v>0.217887</v>
+        <v>217.887</v>
       </c>
     </row>
     <row r="842">
@@ -17203,7 +17203,7 @@
         <v>91.755</v>
       </c>
       <c r="F842" t="n">
-        <v>0.2128716</v>
+        <v>212.8716</v>
       </c>
     </row>
     <row r="843">
@@ -17223,7 +17223,7 @@
         <v>91.44</v>
       </c>
       <c r="F843" t="n">
-        <v>0.21177504</v>
+        <v>211.77504</v>
       </c>
     </row>
     <row r="844">
@@ -17243,7 +17243,7 @@
         <v>91.05</v>
       </c>
       <c r="F844" t="n">
-        <v>0.2159706</v>
+        <v>215.9706</v>
       </c>
     </row>
     <row r="845">
@@ -17263,7 +17263,7 @@
         <v>90.66</v>
       </c>
       <c r="F845" t="n">
-        <v>0.20525424</v>
+        <v>205.25424</v>
       </c>
     </row>
     <row r="846">
@@ -17283,7 +17283,7 @@
         <v>90.23999999999999</v>
       </c>
       <c r="F846" t="n">
-        <v>0.2093568</v>
+        <v>209.3568</v>
       </c>
     </row>
     <row r="847">
@@ -17303,7 +17303,7 @@
         <v>89.895</v>
       </c>
       <c r="F847" t="n">
-        <v>0.20963514</v>
+        <v>209.63514</v>
       </c>
     </row>
     <row r="848">
@@ -17323,7 +17323,7 @@
         <v>89.47499999999999</v>
       </c>
       <c r="F848" t="n">
-        <v>0.2165295</v>
+        <v>216.5295</v>
       </c>
     </row>
     <row r="849">
@@ -17343,7 +17343,7 @@
         <v>90.63</v>
       </c>
       <c r="F849" t="n">
-        <v>0.2138868</v>
+        <v>213.8868</v>
       </c>
     </row>
     <row r="850">
@@ -17363,7 +17363,7 @@
         <v>88.60499999999999</v>
       </c>
       <c r="F850" t="n">
-        <v>0.21513294</v>
+        <v>215.13294</v>
       </c>
     </row>
     <row r="851">
@@ -17383,7 +17383,7 @@
         <v>88.155</v>
       </c>
       <c r="F851" t="n">
-        <v>0.20416698</v>
+        <v>204.16698</v>
       </c>
     </row>
     <row r="852">
@@ -17403,7 +17403,7 @@
         <v>87.765</v>
       </c>
       <c r="F852" t="n">
-        <v>0.20326374</v>
+        <v>203.26374</v>
       </c>
     </row>
     <row r="853">
@@ -17423,7 +17423,7 @@
         <v>87.345</v>
       </c>
       <c r="F853" t="n">
-        <v>0.2061342</v>
+        <v>206.1342</v>
       </c>
     </row>
     <row r="854">
@@ -17443,7 +17443,7 @@
         <v>86.88</v>
       </c>
       <c r="F854" t="n">
-        <v>0.20017152</v>
+        <v>200.17152</v>
       </c>
     </row>
     <row r="855">
@@ -17463,7 +17463,7 @@
         <v>86.505</v>
       </c>
       <c r="F855" t="n">
-        <v>0.20034558</v>
+        <v>200.34558</v>
       </c>
     </row>
     <row r="856">
@@ -17483,7 +17483,7 @@
         <v>85.965</v>
       </c>
       <c r="F856" t="n">
-        <v>0.20081424</v>
+        <v>200.81424</v>
       </c>
     </row>
     <row r="857">
@@ -17503,7 +17503,7 @@
         <v>85.455</v>
       </c>
       <c r="F857" t="n">
-        <v>0.19928106</v>
+        <v>199.28106</v>
       </c>
     </row>
     <row r="858">
@@ -17523,7 +17523,7 @@
         <v>85.005</v>
       </c>
       <c r="F858" t="n">
-        <v>0.1989117</v>
+        <v>198.9117</v>
       </c>
     </row>
     <row r="859">
@@ -17543,7 +17543,7 @@
         <v>84.52499999999999</v>
       </c>
       <c r="F859" t="n">
-        <v>0.1950837</v>
+        <v>195.0837</v>
       </c>
     </row>
     <row r="860">
@@ -17563,7 +17563,7 @@
         <v>84</v>
       </c>
       <c r="F860" t="n">
-        <v>0.193536</v>
+        <v>193.536</v>
       </c>
     </row>
     <row r="861">
@@ -17583,7 +17583,7 @@
         <v>83.52</v>
       </c>
       <c r="F861" t="n">
-        <v>0.19276416</v>
+        <v>192.76416</v>
       </c>
     </row>
     <row r="862">
@@ -17603,7 +17603,7 @@
         <v>83.09999999999999</v>
       </c>
       <c r="F862" t="n">
-        <v>0.1871412</v>
+        <v>187.1412</v>
       </c>
     </row>
     <row r="863">
@@ -17623,7 +17623,7 @@
         <v>82.64999999999999</v>
       </c>
       <c r="F863" t="n">
-        <v>0.1887726</v>
+        <v>188.7726</v>
       </c>
     </row>
     <row r="864">
@@ -17643,7 +17643,7 @@
         <v>82.2</v>
       </c>
       <c r="F864" t="n">
-        <v>0.1900464</v>
+        <v>190.0464</v>
       </c>
     </row>
     <row r="865">
@@ -17663,7 +17663,7 @@
         <v>81.58499999999999</v>
       </c>
       <c r="F865" t="n">
-        <v>0.19645668</v>
+        <v>196.45668</v>
       </c>
     </row>
     <row r="866">
@@ -17683,7 +17683,7 @@
         <v>80.625</v>
       </c>
       <c r="F866" t="n">
-        <v>0.1860825</v>
+        <v>186.0825</v>
       </c>
     </row>
     <row r="867">
@@ -17703,7 +17703,7 @@
         <v>80.175</v>
       </c>
       <c r="F867" t="n">
-        <v>0.1824783</v>
+        <v>182.4783</v>
       </c>
     </row>
     <row r="868">
@@ -17723,7 +17723,7 @@
         <v>79.89</v>
       </c>
       <c r="F868" t="n">
-        <v>0.18278832</v>
+        <v>182.78832</v>
       </c>
     </row>
     <row r="869">
@@ -17743,7 +17743,7 @@
         <v>79.41</v>
       </c>
       <c r="F869" t="n">
-        <v>0.18359592</v>
+        <v>183.59592</v>
       </c>
     </row>
     <row r="870">
@@ -17763,7 +17763,7 @@
         <v>78.735</v>
       </c>
       <c r="F870" t="n">
-        <v>0.17857098</v>
+        <v>178.57098</v>
       </c>
     </row>
     <row r="871">
@@ -17783,7 +17783,7 @@
         <v>78.11999999999999</v>
       </c>
       <c r="F871" t="n">
-        <v>0.1781136</v>
+        <v>178.1136</v>
       </c>
     </row>
     <row r="872">
@@ -17803,7 +17803,7 @@
         <v>77.655</v>
       </c>
       <c r="F872" t="n">
-        <v>0.1770534</v>
+        <v>177.0534</v>
       </c>
     </row>
     <row r="873">
@@ -17823,7 +17823,7 @@
         <v>77.05499999999999</v>
       </c>
       <c r="F873" t="n">
-        <v>0.17506896</v>
+        <v>175.06896</v>
       </c>
     </row>
     <row r="874">
@@ -17843,7 +17843,7 @@
         <v>76.56</v>
       </c>
       <c r="F874" t="n">
-        <v>0.17425056</v>
+        <v>174.25056</v>
       </c>
     </row>
     <row r="875">
@@ -17863,7 +17863,7 @@
         <v>75.95999999999999</v>
       </c>
       <c r="F875" t="n">
-        <v>0.17075808</v>
+        <v>170.75808</v>
       </c>
     </row>
     <row r="876">
@@ -17883,7 +17883,7 @@
         <v>75.255</v>
       </c>
       <c r="F876" t="n">
-        <v>0.1715814</v>
+        <v>171.5814</v>
       </c>
     </row>
     <row r="877">
@@ -17903,7 +17903,7 @@
         <v>74.64</v>
       </c>
       <c r="F877" t="n">
-        <v>0.16689504</v>
+        <v>166.89504</v>
       </c>
     </row>
     <row r="878">
@@ -17923,7 +17923,7 @@
         <v>73.95</v>
       </c>
       <c r="F878" t="n">
-        <v>0.1647606</v>
+        <v>164.7606</v>
       </c>
     </row>
     <row r="879">
@@ -17943,7 +17943,7 @@
         <v>73.5</v>
       </c>
       <c r="F879" t="n">
-        <v>0.164346</v>
+        <v>164.346</v>
       </c>
     </row>
     <row r="880">
@@ -17963,7 +17963,7 @@
         <v>72.97499999999999</v>
       </c>
       <c r="F880" t="n">
-        <v>0.1640478</v>
+        <v>164.0478</v>
       </c>
     </row>
     <row r="881">
@@ -17983,7 +17983,7 @@
         <v>72.36</v>
       </c>
       <c r="F881" t="n">
-        <v>0.16266528</v>
+        <v>162.66528</v>
       </c>
     </row>
     <row r="882">
@@ -18003,7 +18003,7 @@
         <v>71.84999999999999</v>
       </c>
       <c r="F882" t="n">
-        <v>0.165255</v>
+        <v>165.255</v>
       </c>
     </row>
     <row r="883">
@@ -18023,7 +18023,7 @@
         <v>71.145</v>
       </c>
       <c r="F883" t="n">
-        <v>0.15908022</v>
+        <v>159.08022</v>
       </c>
     </row>
     <row r="884">
@@ -18043,7 +18043,7 @@
         <v>70.59</v>
       </c>
       <c r="F884" t="n">
-        <v>0.15699216</v>
+        <v>156.99216</v>
       </c>
     </row>
     <row r="885">
@@ -18063,7 +18063,7 @@
         <v>69.88499999999999</v>
       </c>
       <c r="F885" t="n">
-        <v>0.1565424</v>
+        <v>156.5424</v>
       </c>
     </row>
     <row r="886">
@@ -18083,7 +18083,7 @@
         <v>69.14999999999999</v>
       </c>
       <c r="F886" t="n">
-        <v>0.1537896</v>
+        <v>153.7896</v>
       </c>
     </row>
     <row r="887">
@@ -18103,7 +18103,7 @@
         <v>68.745</v>
       </c>
       <c r="F887" t="n">
-        <v>0.1526139</v>
+        <v>152.6139</v>
       </c>
     </row>
     <row r="888">
@@ -18123,7 +18123,7 @@
         <v>68.13</v>
       </c>
       <c r="F888" t="n">
-        <v>0.15179364</v>
+        <v>151.79364</v>
       </c>
     </row>
     <row r="889">
@@ -18143,7 +18143,7 @@
         <v>67.44</v>
       </c>
       <c r="F889" t="n">
-        <v>0.14998656</v>
+        <v>149.98656</v>
       </c>
     </row>
     <row r="890">
@@ -18163,7 +18163,7 @@
         <v>66.88499999999999</v>
       </c>
       <c r="F890" t="n">
-        <v>0.14768208</v>
+        <v>147.68208</v>
       </c>
     </row>
     <row r="891">
@@ -18183,7 +18183,7 @@
         <v>66.375</v>
       </c>
       <c r="F891" t="n">
-        <v>0.146025</v>
+        <v>146.025</v>
       </c>
     </row>
     <row r="892">
@@ -18203,7 +18203,7 @@
         <v>65.91</v>
       </c>
       <c r="F892" t="n">
-        <v>0.14579292</v>
+        <v>145.79292</v>
       </c>
     </row>
     <row r="893">
@@ -18223,7 +18223,7 @@
         <v>64.41</v>
       </c>
       <c r="F893" t="n">
-        <v>0.1429902</v>
+        <v>142.9902</v>
       </c>
     </row>
     <row r="894">
@@ -18243,7 +18243,7 @@
         <v>64.545</v>
       </c>
       <c r="F894" t="n">
-        <v>0.14354808</v>
+        <v>143.54808</v>
       </c>
     </row>
     <row r="895">
@@ -18263,7 +18263,7 @@
         <v>64.05</v>
       </c>
       <c r="F895" t="n">
-        <v>0.1424472</v>
+        <v>142.4472</v>
       </c>
     </row>
     <row r="896">
@@ -18283,7 +18283,7 @@
         <v>63.18</v>
       </c>
       <c r="F896" t="n">
-        <v>0.14000688</v>
+        <v>140.00688</v>
       </c>
     </row>
     <row r="897">
@@ -18303,7 +18303,7 @@
         <v>62.505</v>
       </c>
       <c r="F897" t="n">
-        <v>0.13776102</v>
+        <v>137.76102</v>
       </c>
     </row>
     <row r="898">
@@ -18323,7 +18323,7 @@
         <v>61.965</v>
       </c>
       <c r="F898" t="n">
-        <v>0.13731444</v>
+        <v>137.31444</v>
       </c>
     </row>
     <row r="899">
@@ -18343,7 +18343,7 @@
         <v>61.305</v>
       </c>
       <c r="F899" t="n">
-        <v>0.13462578</v>
+        <v>134.62578</v>
       </c>
     </row>
     <row r="900">
@@ -18363,7 +18363,7 @@
         <v>60.66</v>
       </c>
       <c r="F900" t="n">
-        <v>0.133452</v>
+        <v>133.452</v>
       </c>
     </row>
     <row r="901">
@@ -18383,7 +18383,7 @@
         <v>59.97</v>
       </c>
       <c r="F901" t="n">
-        <v>0.131934</v>
+        <v>131.934</v>
       </c>
     </row>
     <row r="902">
@@ -18403,7 +18403,7 @@
         <v>59.28</v>
       </c>
       <c r="F902" t="n">
-        <v>0.130416</v>
+        <v>130.416</v>
       </c>
     </row>
     <row r="903">
@@ -18423,7 +18423,7 @@
         <v>58.515</v>
       </c>
       <c r="F903" t="n">
-        <v>0.12896706</v>
+        <v>128.96706</v>
       </c>
     </row>
     <row r="904">
@@ -18443,7 +18443,7 @@
         <v>57.885</v>
       </c>
       <c r="F904" t="n">
-        <v>0.12711546</v>
+        <v>127.11546</v>
       </c>
     </row>
     <row r="905">
@@ -18463,7 +18463,7 @@
         <v>57.405</v>
       </c>
       <c r="F905" t="n">
-        <v>0.126291</v>
+        <v>126.291</v>
       </c>
     </row>
     <row r="906">
@@ -18483,7 +18483,7 @@
         <v>56.73</v>
       </c>
       <c r="F906" t="n">
-        <v>0.12525984</v>
+        <v>125.25984</v>
       </c>
     </row>
     <row r="907">
@@ -18503,7 +18503,7 @@
         <v>56.16</v>
       </c>
       <c r="F907" t="n">
-        <v>0.12332736</v>
+        <v>123.32736</v>
       </c>
     </row>
     <row r="908">
@@ -18523,7 +18523,7 @@
         <v>55.455</v>
       </c>
       <c r="F908" t="n">
-        <v>0.12133554</v>
+        <v>121.33554</v>
       </c>
     </row>
     <row r="909">
@@ -18543,7 +18543,7 @@
         <v>55.02</v>
       </c>
       <c r="F909" t="n">
-        <v>0.12148416</v>
+        <v>121.48416</v>
       </c>
     </row>
     <row r="910">
@@ -18563,7 +18563,7 @@
         <v>54.405</v>
       </c>
       <c r="F910" t="n">
-        <v>0.12012624</v>
+        <v>120.12624</v>
       </c>
     </row>
     <row r="911">
@@ -18583,7 +18583,7 @@
         <v>53.79</v>
       </c>
       <c r="F911" t="n">
-        <v>0.118338</v>
+        <v>118.338</v>
       </c>
     </row>
     <row r="912">
@@ -18603,7 +18603,7 @@
         <v>53.11499999999999</v>
       </c>
       <c r="F912" t="n">
-        <v>0.11664054</v>
+        <v>116.64054</v>
       </c>
     </row>
     <row r="913">
@@ -18623,7 +18623,7 @@
         <v>53.43</v>
       </c>
       <c r="F913" t="n">
-        <v>0.1186146</v>
+        <v>118.6146</v>
       </c>
     </row>
     <row r="914">
@@ -18643,7 +18643,7 @@
         <v>51.75</v>
       </c>
       <c r="F914" t="n">
-        <v>0.113643</v>
+        <v>113.643</v>
       </c>
     </row>
     <row r="915">
@@ -18663,7 +18663,7 @@
         <v>51.075</v>
       </c>
       <c r="F915" t="n">
-        <v>0.1119564</v>
+        <v>111.9564</v>
       </c>
     </row>
     <row r="916">
@@ -18683,7 +18683,7 @@
         <v>50.475</v>
       </c>
       <c r="F916" t="n">
-        <v>0.1112469</v>
+        <v>111.2469</v>
       </c>
     </row>
     <row r="917">
@@ -18703,7 +18703,7 @@
         <v>49.89</v>
       </c>
       <c r="F917" t="n">
-        <v>0.10955844</v>
+        <v>109.55844</v>
       </c>
     </row>
     <row r="918">
@@ -18723,7 +18723,7 @@
         <v>48.93</v>
       </c>
       <c r="F918" t="n">
-        <v>0.10745028</v>
+        <v>107.45028</v>
       </c>
     </row>
     <row r="919">
@@ -18743,7 +18743,7 @@
         <v>47.7</v>
       </c>
       <c r="F919" t="n">
-        <v>0.1045584</v>
+        <v>104.5584</v>
       </c>
     </row>
     <row r="920">
@@ -18763,7 +18763,7 @@
         <v>47.295</v>
       </c>
       <c r="F920" t="n">
-        <v>0.10348146</v>
+        <v>103.48146</v>
       </c>
     </row>
     <row r="921">
@@ -18783,7 +18783,7 @@
         <v>46.035</v>
       </c>
       <c r="F921" t="n">
-        <v>0.10090872</v>
+        <v>100.90872</v>
       </c>
     </row>
     <row r="922">
@@ -18803,7 +18803,7 @@
         <v>45.075</v>
       </c>
       <c r="F922" t="n">
-        <v>0.0988044</v>
+        <v>98.8044</v>
       </c>
     </row>
     <row r="923">
@@ -18823,7 +18823,7 @@
         <v>44.445</v>
       </c>
       <c r="F923" t="n">
-        <v>0.09706788000000001</v>
+        <v>97.06788</v>
       </c>
     </row>
     <row r="924">
@@ -18843,7 +18843,7 @@
         <v>43.73999999999999</v>
       </c>
       <c r="F924" t="n">
-        <v>0.09570312</v>
+        <v>95.70312</v>
       </c>
     </row>
     <row r="925">
@@ -18863,7 +18863,7 @@
         <v>42.885</v>
       </c>
       <c r="F925" t="n">
-        <v>0.09400392</v>
+        <v>94.00392000000001</v>
       </c>
     </row>
     <row r="926">
@@ -18883,7 +18883,7 @@
         <v>42.42</v>
       </c>
       <c r="F926" t="n">
-        <v>0.09298464000000001</v>
+        <v>92.98464000000001</v>
       </c>
     </row>
     <row r="927">
@@ -18903,7 +18903,7 @@
         <v>41.775</v>
       </c>
       <c r="F927" t="n">
-        <v>0.0914037</v>
+        <v>91.4037</v>
       </c>
     </row>
     <row r="928">
@@ -18923,7 +18923,7 @@
         <v>40.995</v>
       </c>
       <c r="F928" t="n">
-        <v>0.08953308</v>
+        <v>89.53308</v>
       </c>
     </row>
   </sheetData>
